--- a/expense/分区赛/汇总表.xlsx
+++ b/expense/分区赛/汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21540" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>编号</t>
   </si>
@@ -61,10 +61,13 @@
     <t>张祖铭</t>
   </si>
   <si>
+    <t>海师-海大:曾帅博+邓磊镗+王雨蒙</t>
+  </si>
+  <si>
+    <t>曾帅博</t>
+  </si>
+  <si>
     <t>2023-07-04</t>
-  </si>
-  <si>
-    <t>逐飞科技-TC264核心板等</t>
   </si>
   <si>
     <t>逐飞科技-IMU963RA等</t>
@@ -1235,14 +1238,14 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.375" customWidth="1"/>
     <col min="2" max="2" width="10.6416666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.7916666666667" style="2" customWidth="1"/>
     <col min="4" max="4" width="6.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.23333333333333" style="1" customWidth="1"/>
@@ -1323,7 +1326,7 @@
       </c>
       <c r="I3" s="25">
         <f>SUM(H3:H12)</f>
-        <v>3088.2</v>
+        <v>2779.5</v>
       </c>
       <c r="J3" s="26" t="s">
         <v>13</v>
@@ -1335,27 +1338,29 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" s="10" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E4" s="18">
-        <v>330.1</v>
+        <v>21.4</v>
       </c>
       <c r="F4" s="18">
-        <v>330.1</v>
+        <v>21.4</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="20">
         <f>IF(E4&lt;F4,E4,F4)</f>
-        <v>330.1</v>
+        <v>21.4</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="28"/>
+      <c r="J4" s="28" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="7">
@@ -1363,10 +1368,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>3</v>
@@ -1391,10 +1396,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>3</v>
@@ -1419,10 +1424,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>3</v>
@@ -1449,13 +1454,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" s="15">
         <v>246.94</v>
@@ -1477,7 +1482,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
@@ -1496,11 +1501,11 @@
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="15">
         <v>92.13</v>
@@ -1517,7 +1522,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
@@ -1536,10 +1541,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>3</v>
@@ -1572,23 +1577,23 @@
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:J3 A4:A12 H4:H7">
+  <conditionalFormatting sqref="A3:J3 A4:A12 H4:H7 B4">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" display="21.9"/>
-    <hyperlink ref="E4" r:id="rId2" display="330.1"/>
+    <hyperlink ref="E4" r:id="rId2" display="21.4"/>
     <hyperlink ref="E5" r:id="rId3" display="421"/>
     <hyperlink ref="D5" r:id="rId4" display="订单"/>
     <hyperlink ref="D3" r:id="rId5" display="行程单"/>
-    <hyperlink ref="D4" r:id="rId6" display="订单"/>
+    <hyperlink ref="D4" r:id="rId6" display="行程单"/>
     <hyperlink ref="F3" r:id="rId7" display="21.9"/>
-    <hyperlink ref="F4" r:id="rId8" display="330.1"/>
+    <hyperlink ref="F4" r:id="rId8" display="21.4"/>
     <hyperlink ref="F5" r:id="rId9" display="421"/>
     <hyperlink ref="C3" r:id="rId10" display="学校-海大:郝旭光+张祖铭+魏畅翔"/>
-    <hyperlink ref="C4" r:id="rId11" display="逐飞科技-TC264核心板等"/>
+    <hyperlink ref="C4" r:id="rId11" display="海师-海大:曾帅博+邓磊镗+王雨蒙"/>
     <hyperlink ref="C5" r:id="rId12" display="逐飞科技-IMU963RA等"/>
     <hyperlink ref="C6" r:id="rId13" display="逐飞科技-智能车配件"/>
     <hyperlink ref="D6" r:id="rId14" display="订单"/>

--- a/expense/分区赛/汇总表.xlsx
+++ b/expense/分区赛/汇总表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>编号</t>
   </si>
@@ -67,10 +67,13 @@
     <t>曾帅博</t>
   </si>
   <si>
+    <t>海大-海师: 王雨蒙</t>
+  </si>
+  <si>
+    <t>王雨蒙</t>
+  </si>
+  <si>
     <t>2023-07-04</t>
-  </si>
-  <si>
-    <t>逐飞科技-IMU963RA等</t>
   </si>
   <si>
     <t>逐飞科技-智能车配件</t>
@@ -111,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -162,23 +165,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,14 +188,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,89 +218,87 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -318,13 +321,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,13 +381,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,145 +495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,8 +564,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,6 +575,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,6 +605,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,49 +653,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,148 +663,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1238,7 +1241,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1326,7 +1329,7 @@
       </c>
       <c r="I3" s="25">
         <f>SUM(H3:H12)</f>
-        <v>2779.5</v>
+        <v>2375.73</v>
       </c>
       <c r="J3" s="26" t="s">
         <v>13</v>
@@ -1368,27 +1371,29 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" s="10" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E5" s="18">
-        <v>421</v>
+        <v>17.23</v>
       </c>
       <c r="F5" s="18">
-        <v>421</v>
+        <v>17.23</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="20">
         <f>IF(E5&lt;F5,E5,F5)</f>
-        <v>421</v>
+        <v>17.23</v>
       </c>
       <c r="I5" s="27"/>
-      <c r="J5" s="28"/>
+      <c r="J5" s="28" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="7">
@@ -1396,10 +1401,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>3</v>
@@ -1424,10 +1429,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>3</v>
@@ -1454,13 +1459,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="15">
         <v>246.94</v>
@@ -1482,7 +1487,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="15"/>
@@ -1501,11 +1506,11 @@
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="15">
         <v>92.13</v>
@@ -1522,7 +1527,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
@@ -1541,10 +1546,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>3</v>
@@ -1585,16 +1590,16 @@
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" display="21.9"/>
     <hyperlink ref="E4" r:id="rId2" display="21.4"/>
-    <hyperlink ref="E5" r:id="rId3" display="421"/>
-    <hyperlink ref="D5" r:id="rId4" display="订单"/>
+    <hyperlink ref="E5" r:id="rId3" display="17.23"/>
+    <hyperlink ref="D5" r:id="rId4" display="行程单"/>
     <hyperlink ref="D3" r:id="rId5" display="行程单"/>
     <hyperlink ref="D4" r:id="rId6" display="行程单"/>
     <hyperlink ref="F3" r:id="rId7" display="21.9"/>
     <hyperlink ref="F4" r:id="rId8" display="21.4"/>
-    <hyperlink ref="F5" r:id="rId9" display="421"/>
+    <hyperlink ref="F5" r:id="rId9" display="17.23"/>
     <hyperlink ref="C3" r:id="rId10" display="学校-海大:郝旭光+张祖铭+魏畅翔"/>
     <hyperlink ref="C4" r:id="rId11" display="海师-海大:曾帅博+邓磊镗+王雨蒙"/>
-    <hyperlink ref="C5" r:id="rId12" display="逐飞科技-IMU963RA等"/>
+    <hyperlink ref="C5" r:id="rId12" display="海大-海师: 王雨蒙"/>
     <hyperlink ref="C6" r:id="rId13" display="逐飞科技-智能车配件"/>
     <hyperlink ref="D6" r:id="rId14" display="订单"/>
     <hyperlink ref="E6" r:id="rId15" display="531"/>

--- a/expense/分区赛/汇总表.xlsx
+++ b/expense/分区赛/汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12645"/>
+    <workbookView windowWidth="21540" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>编号</t>
   </si>
@@ -73,34 +73,37 @@
     <t>王雨蒙</t>
   </si>
   <si>
+    <t>2023-07-16</t>
+  </si>
+  <si>
+    <t>海师-海大:姜一、盛璐豪、吴子龙</t>
+  </si>
+  <si>
+    <t>姜一</t>
+  </si>
+  <si>
+    <t>海大-海师:姜一、盛璐豪、吴子龙</t>
+  </si>
+  <si>
+    <t>2023-08-08</t>
+  </si>
+  <si>
+    <t>嘉立创</t>
+  </si>
+  <si>
+    <t>订单1</t>
+  </si>
+  <si>
+    <t>2023-08-06</t>
+  </si>
+  <si>
+    <t>2023-07-31</t>
+  </si>
+  <si>
+    <t>订单2</t>
+  </si>
+  <si>
     <t>2023-07-04</t>
-  </si>
-  <si>
-    <t>逐飞科技-智能车配件</t>
-  </si>
-  <si>
-    <t>2023-08-07</t>
-  </si>
-  <si>
-    <t>逐飞科技-新版D车模套件</t>
-  </si>
-  <si>
-    <t>2023-08-08</t>
-  </si>
-  <si>
-    <t>嘉立创</t>
-  </si>
-  <si>
-    <t>订单1</t>
-  </si>
-  <si>
-    <t>2023-08-06</t>
-  </si>
-  <si>
-    <t>2023-07-31</t>
-  </si>
-  <si>
-    <t>订单2</t>
   </si>
   <si>
     <t>2023-02-18</t>
@@ -114,10 +117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -165,17 +168,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,24 +183,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,6 +206,37 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -235,66 +254,50 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,55 +318,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,127 +498,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,7 +568,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,37 +577,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,6 +608,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -650,6 +638,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -663,94 +666,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -759,56 +762,56 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -895,6 +898,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1241,7 +1247,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1329,7 +1335,7 @@
       </c>
       <c r="I3" s="25">
         <f>SUM(H3:H12)</f>
-        <v>2375.73</v>
+        <v>525.14</v>
       </c>
       <c r="J3" s="26" t="s">
         <v>13</v>
@@ -1407,21 +1413,23 @@
         <v>19</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E6" s="18">
-        <v>531</v>
+        <v>19.23</v>
       </c>
       <c r="F6" s="18">
-        <v>531</v>
+        <v>19.23</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="20">
         <f>IF(E6&lt;F6,E6,F6)</f>
-        <v>531</v>
+        <v>19.23</v>
       </c>
       <c r="I6" s="27"/>
-      <c r="J6" s="28"/>
+      <c r="J6" s="29" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="7">
@@ -1429,29 +1437,27 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E7" s="15">
-        <v>1361.1</v>
+        <v>22.28</v>
       </c>
       <c r="F7" s="15">
-        <v>1361.1</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>6</v>
-      </c>
+        <v>22.28</v>
+      </c>
+      <c r="G7"/>
       <c r="H7" s="20">
         <f>IF(E7&lt;F7,E7,F7)</f>
-        <v>1361.1</v>
+        <v>22.28</v>
       </c>
       <c r="I7" s="27"/>
-      <c r="J7" s="28"/>
+      <c r="J7" s="29"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="7">
@@ -1527,7 +1533,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
@@ -1546,10 +1552,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>3</v>
@@ -1565,17 +1571,18 @@
         <f>IF(E12&lt;F12,E12,F12)</f>
         <v>22.86</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="F8:F11"/>
     <mergeCell ref="H8:H11"/>
     <mergeCell ref="I3:I12"/>
+    <mergeCell ref="J6:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H12">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -1600,36 +1607,35 @@
     <hyperlink ref="C3" r:id="rId10" display="学校-海大:郝旭光+张祖铭+魏畅翔"/>
     <hyperlink ref="C4" r:id="rId11" display="海师-海大:曾帅博+邓磊镗+王雨蒙"/>
     <hyperlink ref="C5" r:id="rId12" display="海大-海师: 王雨蒙"/>
-    <hyperlink ref="C6" r:id="rId13" display="逐飞科技-智能车配件"/>
-    <hyperlink ref="D6" r:id="rId14" display="订单"/>
-    <hyperlink ref="E6" r:id="rId15" display="531"/>
-    <hyperlink ref="F6" r:id="rId16" display="531"/>
-    <hyperlink ref="D7" r:id="rId17" display="订单"/>
-    <hyperlink ref="E7" r:id="rId18" display="1361.1"/>
-    <hyperlink ref="F7" r:id="rId19" display="1361.1"/>
-    <hyperlink ref="G7" r:id="rId20" display="验真"/>
-    <hyperlink ref="C7" r:id="rId21" display="逐飞科技-新版D车模套件"/>
-    <hyperlink ref="C8" r:id="rId22" display="嘉立创"/>
-    <hyperlink ref="D8" r:id="rId23" display="订单1"/>
-    <hyperlink ref="E8" r:id="rId24" display="246.94"/>
-    <hyperlink ref="E9" r:id="rId25" display="28.77"/>
-    <hyperlink ref="E10" r:id="rId26" display="92.13"/>
-    <hyperlink ref="E11" r:id="rId27" display="32.4"/>
-    <hyperlink ref="D9" r:id="rId23"/>
-    <hyperlink ref="D10" r:id="rId28" display="订单2"/>
-    <hyperlink ref="D11" r:id="rId23"/>
-    <hyperlink ref="F8" r:id="rId29" display="400.24"/>
-    <hyperlink ref="F9" r:id="rId29"/>
-    <hyperlink ref="F10" r:id="rId29"/>
-    <hyperlink ref="F11" r:id="rId29"/>
-    <hyperlink ref="C8:C11" r:id="rId30" display="嘉立创"/>
-    <hyperlink ref="D8:D9" r:id="rId31" display="订单1"/>
-    <hyperlink ref="D10:D11" r:id="rId32" display="订单2"/>
-    <hyperlink ref="F8:F11" r:id="rId33" display="400.24"/>
-    <hyperlink ref="C12" r:id="rId34" display="欧顿-贴片电阻"/>
-    <hyperlink ref="D12" r:id="rId35" display="订单"/>
-    <hyperlink ref="E12" r:id="rId36" display="22.86"/>
-    <hyperlink ref="F12" r:id="rId37" display="23"/>
+    <hyperlink ref="C6" r:id="rId13" display="海师-海大:姜一、盛璐豪、吴子龙"/>
+    <hyperlink ref="D6" r:id="rId14" display="行程单"/>
+    <hyperlink ref="E6" r:id="rId15" display="19.23"/>
+    <hyperlink ref="F6" r:id="rId16" display="19.23"/>
+    <hyperlink ref="D7" r:id="rId17" display="行程单"/>
+    <hyperlink ref="E7" r:id="rId18" display="22.28"/>
+    <hyperlink ref="F7" r:id="rId16" display="22.28"/>
+    <hyperlink ref="C7" r:id="rId19" display="海大-海师:姜一、盛璐豪、吴子龙"/>
+    <hyperlink ref="C8" r:id="rId20" display="嘉立创"/>
+    <hyperlink ref="D8" r:id="rId21" display="订单1"/>
+    <hyperlink ref="E8" r:id="rId22" display="246.94"/>
+    <hyperlink ref="E9" r:id="rId23" display="28.77"/>
+    <hyperlink ref="E10" r:id="rId24" display="92.13"/>
+    <hyperlink ref="E11" r:id="rId25" display="32.4"/>
+    <hyperlink ref="D9" r:id="rId21"/>
+    <hyperlink ref="D10" r:id="rId26" display="订单2"/>
+    <hyperlink ref="D11" r:id="rId21"/>
+    <hyperlink ref="F8" r:id="rId27" display="400.24"/>
+    <hyperlink ref="F9" r:id="rId27"/>
+    <hyperlink ref="F10" r:id="rId27"/>
+    <hyperlink ref="F11" r:id="rId27"/>
+    <hyperlink ref="C8:C11" r:id="rId28" display="嘉立创"/>
+    <hyperlink ref="D8:D9" r:id="rId29" display="订单1"/>
+    <hyperlink ref="D10:D11" r:id="rId30" display="订单2"/>
+    <hyperlink ref="F8:F11" r:id="rId31" display="400.24"/>
+    <hyperlink ref="C12" r:id="rId32" display="欧顿-贴片电阻"/>
+    <hyperlink ref="D12" r:id="rId33" display="订单"/>
+    <hyperlink ref="E12" r:id="rId34" display="22.86"/>
+    <hyperlink ref="F12" r:id="rId35" display="23"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/expense/分区赛/汇总表.xlsx
+++ b/expense/分区赛/汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21540" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>编号</t>
   </si>
@@ -67,7 +67,7 @@
     <t>曾帅博</t>
   </si>
   <si>
-    <t>海大-海师: 王雨蒙</t>
+    <t>海大-海师:王雨蒙</t>
   </si>
   <si>
     <t>王雨蒙</t>
@@ -85,22 +85,19 @@
     <t>海大-海师:姜一、盛璐豪、吴子龙</t>
   </si>
   <si>
-    <t>2023-08-08</t>
-  </si>
-  <si>
-    <t>嘉立创</t>
-  </si>
-  <si>
-    <t>订单1</t>
-  </si>
-  <si>
-    <t>2023-08-06</t>
-  </si>
-  <si>
-    <t>2023-07-31</t>
-  </si>
-  <si>
-    <t>订单2</t>
+    <t>海大-海师:魏郡辰、严超，曾帅博</t>
+  </si>
+  <si>
+    <t>魏郡辰</t>
+  </si>
+  <si>
+    <t>2023-07-17</t>
+  </si>
+  <si>
+    <t>海大-海师:魏郡辰、严超</t>
+  </si>
+  <si>
+    <t>海师-海大:魏郡辰、严超、老师</t>
   </si>
   <si>
     <t>2023-07-04</t>
@@ -811,7 +808,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -854,12 +851,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -875,8 +878,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1247,7 +1268,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1288,10 +1309,10 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="31" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -1305,8 +1326,8 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="24"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="7">
@@ -1322,22 +1343,22 @@
       <c r="D3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="20">
         <v>21.9</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="20">
         <v>21.9</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20">
+      <c r="G3" s="21"/>
+      <c r="H3" s="22">
         <f>IF(E3&lt;F3,E3,F3)</f>
         <v>21.9</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="33">
         <f>SUM(H3:H12)</f>
-        <v>525.14</v>
-      </c>
-      <c r="J3" s="26" t="s">
+        <v>187.86</v>
+      </c>
+      <c r="J3" s="34" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1355,19 +1376,19 @@
       <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="20">
         <v>21.4</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="20">
         <v>21.4</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20">
+      <c r="G4" s="21"/>
+      <c r="H4" s="22">
         <f>IF(E4&lt;F4,E4,F4)</f>
         <v>21.4</v>
       </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="28" t="s">
+      <c r="I4" s="35"/>
+      <c r="J4" s="36" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1385,19 +1406,19 @@
       <c r="D5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="20">
         <v>17.23</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="20">
         <v>17.23</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20">
+      <c r="G5" s="21"/>
+      <c r="H5" s="22">
         <f>IF(E5&lt;F5,E5,F5)</f>
         <v>17.23</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="28" t="s">
+      <c r="I5" s="35"/>
+      <c r="J5" s="36" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1415,19 +1436,19 @@
       <c r="D6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="20">
         <v>19.23</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="20">
         <v>19.23</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20">
+      <c r="G6" s="21"/>
+      <c r="H6" s="22">
         <f>IF(E6&lt;F6,E6,F6)</f>
         <v>19.23</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="29" t="s">
+      <c r="I6" s="35"/>
+      <c r="J6" s="37" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1452,12 +1473,12 @@
         <v>22.28</v>
       </c>
       <c r="G7"/>
-      <c r="H7" s="20">
+      <c r="H7" s="22">
         <f>IF(E7&lt;F7,E7,F7)</f>
         <v>22.28</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="29"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="37"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="7">
@@ -1465,27 +1486,29 @@
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="15">
+        <v>24.55</v>
+      </c>
+      <c r="F8" s="23">
+        <v>62.96</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25">
+        <f>IF(SUM(E8:E10)&lt;F8,SUM(E8:E10),F8)</f>
+        <v>62.96</v>
+      </c>
+      <c r="I8" s="35"/>
+      <c r="J8" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="15">
-        <v>246.94</v>
-      </c>
-      <c r="F8" s="15">
-        <v>400.24</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="20">
-        <f>SUM(E8:E11)</f>
-        <v>400.24</v>
-      </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="28"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="7">
@@ -1493,18 +1516,20 @@
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="15">
-        <v>28.77</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="28"/>
+        <v>18.78</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="37"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="7">
@@ -1512,20 +1537,20 @@
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15" t="s">
-        <v>27</v>
-      </c>
+      <c r="D10" s="16"/>
       <c r="E10" s="15">
-        <v>92.13</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="28"/>
+        <v>19.63</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="37"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="7">
@@ -1533,18 +1558,18 @@
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="15">
         <v>32.4</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="36"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="7">
@@ -1552,10 +1577,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>3</v>
@@ -1566,23 +1591,22 @@
       <c r="F12" s="15">
         <v>23</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="20">
+      <c r="G12" s="30"/>
+      <c r="H12" s="22">
         <f>IF(E12&lt;F12,E12,F12)</f>
         <v>22.86</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="H8:H11"/>
+  <mergeCells count="6">
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="H8:H10"/>
     <mergeCell ref="I3:I12"/>
     <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J8:J10"/>
   </mergeCells>
   <conditionalFormatting sqref="H12">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -1606,7 +1630,7 @@
     <hyperlink ref="F5" r:id="rId9" display="17.23"/>
     <hyperlink ref="C3" r:id="rId10" display="学校-海大:郝旭光+张祖铭+魏畅翔"/>
     <hyperlink ref="C4" r:id="rId11" display="海师-海大:曾帅博+邓磊镗+王雨蒙"/>
-    <hyperlink ref="C5" r:id="rId12" display="海大-海师: 王雨蒙"/>
+    <hyperlink ref="C5" r:id="rId12" display="海大-海师:王雨蒙"/>
     <hyperlink ref="C6" r:id="rId13" display="海师-海大:姜一、盛璐豪、吴子龙"/>
     <hyperlink ref="D6" r:id="rId14" display="行程单"/>
     <hyperlink ref="E6" r:id="rId15" display="19.23"/>
@@ -1615,27 +1639,25 @@
     <hyperlink ref="E7" r:id="rId18" display="22.28"/>
     <hyperlink ref="F7" r:id="rId16" display="22.28"/>
     <hyperlink ref="C7" r:id="rId19" display="海大-海师:姜一、盛璐豪、吴子龙"/>
-    <hyperlink ref="C8" r:id="rId20" display="嘉立创"/>
-    <hyperlink ref="D8" r:id="rId21" display="订单1"/>
-    <hyperlink ref="E8" r:id="rId22" display="246.94"/>
-    <hyperlink ref="E9" r:id="rId23" display="28.77"/>
-    <hyperlink ref="E10" r:id="rId24" display="92.13"/>
-    <hyperlink ref="E11" r:id="rId25" display="32.4"/>
-    <hyperlink ref="D9" r:id="rId21"/>
-    <hyperlink ref="D10" r:id="rId26" display="订单2"/>
-    <hyperlink ref="D11" r:id="rId21"/>
-    <hyperlink ref="F8" r:id="rId27" display="400.24"/>
-    <hyperlink ref="F9" r:id="rId27"/>
-    <hyperlink ref="F10" r:id="rId27"/>
-    <hyperlink ref="F11" r:id="rId27"/>
-    <hyperlink ref="C8:C11" r:id="rId28" display="嘉立创"/>
-    <hyperlink ref="D8:D9" r:id="rId29" display="订单1"/>
-    <hyperlink ref="D10:D11" r:id="rId30" display="订单2"/>
-    <hyperlink ref="F8:F11" r:id="rId31" display="400.24"/>
-    <hyperlink ref="C12" r:id="rId32" display="欧顿-贴片电阻"/>
-    <hyperlink ref="D12" r:id="rId33" display="订单"/>
-    <hyperlink ref="E12" r:id="rId34" display="22.86"/>
-    <hyperlink ref="F12" r:id="rId35" display="23"/>
+    <hyperlink ref="D8" r:id="rId20" display="行程单"/>
+    <hyperlink ref="E8" r:id="rId21" display="24.55"/>
+    <hyperlink ref="E9" r:id="rId22" display="18.78"/>
+    <hyperlink ref="E10" r:id="rId23" display="19.63"/>
+    <hyperlink ref="E11" r:id="rId24" display="32.4"/>
+    <hyperlink ref="D9" r:id="rId20"/>
+    <hyperlink ref="D10" r:id="rId25"/>
+    <hyperlink ref="D11" r:id="rId20"/>
+    <hyperlink ref="D8:D9" r:id="rId26" display="行程单"/>
+    <hyperlink ref="D10:D11" r:id="rId27"/>
+    <hyperlink ref="C12" r:id="rId28" display="欧顿-贴片电阻"/>
+    <hyperlink ref="D12" r:id="rId29" display="订单"/>
+    <hyperlink ref="E12" r:id="rId30" display="22.86"/>
+    <hyperlink ref="F12" r:id="rId31" display="23"/>
+    <hyperlink ref="D8:D10" r:id="rId32" display="行程单"/>
+    <hyperlink ref="C8" r:id="rId33" display="海大-海师:魏郡辰、严超，曾帅博"/>
+    <hyperlink ref="C9" r:id="rId34" display="海大-海师:魏郡辰、严超"/>
+    <hyperlink ref="C10" r:id="rId35" display="海师-海大:魏郡辰、严超、老师"/>
+    <hyperlink ref="F8:F11" r:id="rId36" display="62.96"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/expense/分区赛/汇总表.xlsx
+++ b/expense/分区赛/汇总表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>编号</t>
   </si>
@@ -49,6 +49,9 @@
     <t>收款人</t>
   </si>
   <si>
+    <t>状态</t>
+  </si>
+  <si>
     <t>2024-07-16</t>
   </si>
   <si>
@@ -100,13 +103,16 @@
     <t>海师-海大:魏郡辰、严超、老师</t>
   </si>
   <si>
-    <t>2023-07-04</t>
-  </si>
-  <si>
-    <t>2023-02-18</t>
-  </si>
-  <si>
-    <t>欧顿-贴片电阻</t>
+    <t>海师-海大:张艺鹏、严超、颜丽娜、魏郡辰</t>
+  </si>
+  <si>
+    <t>张艺鹏</t>
+  </si>
+  <si>
+    <t>收款人已确认</t>
+  </si>
+  <si>
+    <t>海大-海师:张艺鹏</t>
   </si>
 </sst>
 </file>
@@ -114,10 +120,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -165,7 +171,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,122 +284,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,55 +321,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,121 +501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,7 +550,9 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -555,18 +563,7 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -575,17 +572,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,16 +592,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,17 +621,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,152 +669,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -851,16 +857,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -878,25 +884,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -908,26 +908,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1263,19 +1260,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.375" customWidth="1"/>
     <col min="2" max="2" width="10.6416666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.7916666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="35.8666666666667" style="2" customWidth="1"/>
     <col min="4" max="4" width="6.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="7.23333333333333" style="1" customWidth="1"/>
@@ -1283,11 +1280,11 @@
     <col min="8" max="8" width="7.375" style="3" customWidth="1"/>
     <col min="9" max="9" width="7.375" style="4" customWidth="1"/>
     <col min="10" max="10" width="7" style="2" customWidth="1"/>
-    <col min="11" max="11" width="3" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.4166666666667" style="2" customWidth="1"/>
     <col min="12" max="24" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1312,11 +1309,14 @@
       <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="29" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" ht="1" customHeight="1" spans="2:9">
@@ -1327,21 +1327,21 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="19"/>
-      <c r="I2" s="32"/>
+      <c r="I2" s="30"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="7">
         <f t="shared" ref="A3:A12" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="20">
         <v>21.9</v>
@@ -1354,27 +1354,28 @@
         <f>IF(E3&lt;F3,E3,F3)</f>
         <v>21.9</v>
       </c>
-      <c r="I3" s="33">
-        <f>SUM(H3:H12)</f>
-        <v>187.86</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>13</v>
-      </c>
+      <c r="I3" s="21">
+        <f>SUM(H3:H13)</f>
+        <v>202.61</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="20">
         <v>21.4</v>
@@ -1387,24 +1388,25 @@
         <f>IF(E4&lt;F4,E4,F4)</f>
         <v>21.4</v>
       </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="36" t="s">
-        <v>15</v>
-      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="20">
         <v>17.23</v>
@@ -1417,24 +1419,25 @@
         <f>IF(E5&lt;F5,E5,F5)</f>
         <v>17.23</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="36" t="s">
-        <v>17</v>
-      </c>
+      <c r="I5" s="21"/>
+      <c r="J5" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="20">
         <v>19.23</v>
@@ -1443,28 +1446,29 @@
         <v>19.23</v>
       </c>
       <c r="G6" s="21"/>
-      <c r="H6" s="22">
-        <f>IF(E6&lt;F6,E6,F6)</f>
-        <v>19.23</v>
-      </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="37" t="s">
-        <v>20</v>
-      </c>
+      <c r="H6" s="23">
+        <f>IF(SUM(E6:E7)&lt;SUM(F6:F7),SUM(E6:E7),SUM(F6:F7))</f>
+        <v>41.51</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="J6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="33"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="15">
         <v>22.28</v>
@@ -1472,148 +1476,180 @@
       <c r="F7" s="15">
         <v>22.28</v>
       </c>
-      <c r="G7"/>
-      <c r="H7" s="22">
-        <f>IF(E7&lt;F7,E7,F7)</f>
-        <v>22.28</v>
-      </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="37"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="34"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="15">
         <v>24.55</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="25">
         <v>62.96</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25">
+      <c r="G8" s="26"/>
+      <c r="H8" s="22">
         <f>IF(SUM(E8:E10)&lt;F8,SUM(E8:E10),F8)</f>
         <v>62.96</v>
       </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="37" t="s">
-        <v>23</v>
-      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="33"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="16"/>
+        <v>26</v>
+      </c>
+      <c r="D9" s="15"/>
       <c r="E9" s="15">
         <v>18.78</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="37"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="35"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="15">
         <v>19.63</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="37"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="34"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11" s="17"/>
+        <v>19</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>13</v>
+      </c>
       <c r="E11" s="15">
-        <v>32.4</v>
-      </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="36"/>
+        <v>16.78</v>
+      </c>
+      <c r="F11" s="27">
+        <v>16.78</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="22">
+        <f>IF(SUM(E11:E12)&lt;SUM(F11:F12),SUM(E11:E12),SUM(F11:F12))</f>
+        <v>37.61</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="E12" s="15">
-        <v>22.86</v>
-      </c>
-      <c r="F12" s="15">
-        <v>23</v>
-      </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="22">
-        <f>IF(E12&lt;F12,E12,F12)</f>
-        <v>22.86</v>
-      </c>
-      <c r="I12" s="38"/>
-      <c r="J12" s="39"/>
+        <v>20.83</v>
+      </c>
+      <c r="F12" s="27">
+        <v>20.83</v>
+      </c>
+      <c r="G12" s="26"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="36"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="7"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="F8:F10"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="H8:H10"/>
-    <mergeCell ref="I3:I12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I3:I13"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="J8:J10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="K11:K12"/>
   </mergeCells>
-  <conditionalFormatting sqref="H12">
+  <conditionalFormatting sqref="H13">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:J3 A4:A12 H4:H7 B4">
+  <conditionalFormatting sqref="A3:J3 A4:A13 B4 H4:H6">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
@@ -1643,21 +1679,22 @@
     <hyperlink ref="E8" r:id="rId21" display="24.55"/>
     <hyperlink ref="E9" r:id="rId22" display="18.78"/>
     <hyperlink ref="E10" r:id="rId23" display="19.63"/>
-    <hyperlink ref="E11" r:id="rId24" display="32.4"/>
+    <hyperlink ref="E11" r:id="rId24" display="16.78"/>
     <hyperlink ref="D9" r:id="rId20"/>
     <hyperlink ref="D10" r:id="rId25"/>
-    <hyperlink ref="D11" r:id="rId20"/>
     <hyperlink ref="D8:D9" r:id="rId26" display="行程单"/>
-    <hyperlink ref="D10:D11" r:id="rId27"/>
-    <hyperlink ref="C12" r:id="rId28" display="欧顿-贴片电阻"/>
-    <hyperlink ref="D12" r:id="rId29" display="订单"/>
-    <hyperlink ref="E12" r:id="rId30" display="22.86"/>
-    <hyperlink ref="F12" r:id="rId31" display="23"/>
-    <hyperlink ref="D8:D10" r:id="rId32" display="行程单"/>
-    <hyperlink ref="C8" r:id="rId33" display="海大-海师:魏郡辰、严超，曾帅博"/>
-    <hyperlink ref="C9" r:id="rId34" display="海大-海师:魏郡辰、严超"/>
-    <hyperlink ref="C10" r:id="rId35" display="海师-海大:魏郡辰、严超、老师"/>
-    <hyperlink ref="F8:F11" r:id="rId36" display="62.96"/>
+    <hyperlink ref="D8:D10" r:id="rId27" display="行程单"/>
+    <hyperlink ref="C8" r:id="rId28" display="海大-海师:魏郡辰、严超，曾帅博"/>
+    <hyperlink ref="C9" r:id="rId29" display="海大-海师:魏郡辰、严超"/>
+    <hyperlink ref="C10" r:id="rId30" display="海师-海大:魏郡辰、严超、老师"/>
+    <hyperlink ref="F8:F11" r:id="rId31" display="62.96"/>
+    <hyperlink ref="D11" r:id="rId32" display="行程单"/>
+    <hyperlink ref="F11" r:id="rId33" display="16.78"/>
+    <hyperlink ref="D12" r:id="rId34" display="行程单"/>
+    <hyperlink ref="E12" r:id="rId35" display="20.83"/>
+    <hyperlink ref="F12" r:id="rId36" display="20.83"/>
+    <hyperlink ref="C12" r:id="rId37" display="海大-海师:张艺鹏"/>
+    <hyperlink ref="C11" r:id="rId38" display="海师-海大:张艺鹏、严超、颜丽娜、魏郡辰"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/expense/分区赛/汇总表.xlsx
+++ b/expense/分区赛/汇总表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>编号</t>
   </si>
@@ -113,6 +113,15 @@
   </si>
   <si>
     <t>海大-海师:张艺鹏</t>
+  </si>
+  <si>
+    <t>海大-海师：成志远、张嘉佳、傅琦玮</t>
+  </si>
+  <si>
+    <t>成志远</t>
+  </si>
+  <si>
+    <t>已自费转帐 7月13日和6月16日费用</t>
   </si>
 </sst>
 </file>
@@ -120,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -170,6 +179,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -178,7 +226,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,36 +234,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,78 +279,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,181 +336,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,45 +576,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -625,7 +595,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,11 +617,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,153 +658,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1260,12 +1269,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1356,7 +1365,7 @@
       </c>
       <c r="I3" s="21">
         <f>SUM(H3:H13)</f>
-        <v>202.61</v>
+        <v>225.15</v>
       </c>
       <c r="J3" s="31" t="s">
         <v>14</v>
@@ -1616,18 +1625,39 @@
       <c r="J12" s="8"/>
       <c r="K12" s="36"/>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="7"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+    <row r="13" spans="1:12">
+      <c r="A13" s="7">
+        <f>ROW()-2</f>
+        <v>11</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="15">
+        <v>22.54</v>
+      </c>
+      <c r="F13" s="15">
+        <v>22.54</v>
+      </c>
       <c r="G13" s="28"/>
-      <c r="H13" s="22"/>
+      <c r="H13" s="22">
+        <f>IF(E13&lt;F13,E13,F13)</f>
+        <v>22.54</v>
+      </c>
       <c r="I13" s="21"/>
-      <c r="J13" s="31"/>
+      <c r="J13" s="31" t="s">
+        <v>33</v>
+      </c>
       <c r="K13" s="32"/>
+      <c r="L13" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1695,6 +1725,10 @@
     <hyperlink ref="F12" r:id="rId36" display="20.83"/>
     <hyperlink ref="C12" r:id="rId37" display="海大-海师:张艺鹏"/>
     <hyperlink ref="C11" r:id="rId38" display="海师-海大:张艺鹏、严超、颜丽娜、魏郡辰"/>
+    <hyperlink ref="C13" r:id="rId39" display="海大-海师：成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="D13" r:id="rId40" display="行程单"/>
+    <hyperlink ref="E13" r:id="rId41" display="22.54"/>
+    <hyperlink ref="F13" r:id="rId42" display="22.54"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/expense/分区赛/汇总表.xlsx
+++ b/expense/分区赛/汇总表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>编号</t>
   </si>
@@ -76,9 +76,6 @@
     <t>王雨蒙</t>
   </si>
   <si>
-    <t>2023-07-16</t>
-  </si>
-  <si>
     <t>海师-海大:姜一、盛璐豪、吴子龙</t>
   </si>
   <si>
@@ -94,7 +91,7 @@
     <t>魏郡辰</t>
   </si>
   <si>
-    <t>2023-07-17</t>
+    <t>2024-07-17</t>
   </si>
   <si>
     <t>海大-海师:魏郡辰、严超</t>
@@ -122,6 +119,18 @@
   </si>
   <si>
     <t>已自费转帐 7月13日和6月16日费用</t>
+  </si>
+  <si>
+    <t>海大-海师: 张嘉佳、成志远、傅琦玮</t>
+  </si>
+  <si>
+    <t>张嘉佳</t>
+  </si>
+  <si>
+    <t>2024-07-15</t>
+  </si>
+  <si>
+    <t>海师-海大: 张嘉佳、成志远、傅琦玮</t>
   </si>
 </sst>
 </file>
@@ -129,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -179,62 +188,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,6 +218,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -256,60 +264,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,181 +345,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,41 +585,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,13 +603,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,16 +643,42 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,94 +687,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -774,56 +783,56 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -878,6 +887,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -911,6 +935,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -933,6 +966,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1269,12 +1308,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1315,10 +1354,10 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="37" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -1335,12 +1374,12 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="30"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="7">
-        <f t="shared" ref="A3:A12" si="0">ROW()-2</f>
+        <f t="shared" ref="A3:A18" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1352,25 +1391,25 @@
       <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="25">
         <v>21.9</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="25">
         <v>21.9</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22">
+      <c r="G3" s="26"/>
+      <c r="H3" s="27">
         <f>IF(E3&lt;F3,E3,F3)</f>
         <v>21.9</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="26">
         <f>SUM(H3:H13)</f>
         <v>225.15</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="32"/>
+      <c r="K3" s="40"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="7">
@@ -1386,22 +1425,22 @@
       <c r="D4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="25">
         <v>21.4</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="25">
         <v>21.4</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22">
+      <c r="G4" s="26"/>
+      <c r="H4" s="27">
         <f>IF(E4&lt;F4,E4,F4)</f>
         <v>21.4</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="31" t="s">
+      <c r="I4" s="26"/>
+      <c r="J4" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="32"/>
+      <c r="K4" s="40"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="7">
@@ -1417,22 +1456,22 @@
       <c r="D5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="25">
         <v>17.23</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="25">
         <v>17.23</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22">
+      <c r="G5" s="26"/>
+      <c r="H5" s="27">
         <f>IF(E5&lt;F5,E5,F5)</f>
         <v>17.23</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="31" t="s">
+      <c r="I5" s="26"/>
+      <c r="J5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="32"/>
+      <c r="K5" s="40"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="7">
@@ -1440,30 +1479,30 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="25">
         <v>19.23</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="25">
         <v>19.23</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="23">
+      <c r="G6" s="26"/>
+      <c r="H6" s="28">
         <f>IF(SUM(E6:E7)&lt;SUM(F6:F7),SUM(E6:E7),SUM(F6:F7))</f>
         <v>41.51</v>
       </c>
-      <c r="I6" s="21"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="33"/>
+        <v>20</v>
+      </c>
+      <c r="K6" s="41"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="7">
@@ -1471,10 +1510,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>13</v>
@@ -1486,10 +1525,10 @@
         <v>22.28</v>
       </c>
       <c r="G7" s="16"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="21"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="26"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="34"/>
+      <c r="K7" s="42"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="7">
@@ -1497,10 +1536,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>13</v>
@@ -1508,19 +1547,19 @@
       <c r="E8" s="15">
         <v>24.55</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="30">
         <v>62.96</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="22">
+      <c r="G8" s="31"/>
+      <c r="H8" s="27">
         <f>IF(SUM(E8:E10)&lt;F8,SUM(E8:E10),F8)</f>
         <v>62.96</v>
       </c>
-      <c r="I8" s="21"/>
+      <c r="I8" s="26"/>
       <c r="J8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="33"/>
+        <v>23</v>
+      </c>
+      <c r="K8" s="41"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="7">
@@ -1528,21 +1567,21 @@
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>26</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15">
         <v>18.78</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="21"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="26"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="35"/>
+      <c r="K9" s="43"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="7">
@@ -1550,21 +1589,21 @@
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="15">
         <v>19.63</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="21"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="26"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="34"/>
+      <c r="K10" s="42"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="7">
@@ -1572,10 +1611,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -1583,20 +1622,20 @@
       <c r="E11" s="15">
         <v>16.78</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="32">
         <v>16.78</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="22">
+      <c r="G11" s="31"/>
+      <c r="H11" s="27">
         <f>IF(SUM(E11:E12)&lt;SUM(F11:F12),SUM(E11:E12),SUM(F11:F12))</f>
         <v>37.61</v>
       </c>
-      <c r="I11" s="21"/>
+      <c r="I11" s="26"/>
       <c r="J11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="44" t="s">
         <v>29</v>
-      </c>
-      <c r="K11" s="36" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1605,10 +1644,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>13</v>
@@ -1616,25 +1655,25 @@
       <c r="E12" s="15">
         <v>20.83</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="32">
         <v>20.83</v>
       </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="21"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="26"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="36"/>
+      <c r="K12" s="44"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="7">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>13</v>
@@ -1645,41 +1684,156 @@
       <c r="F13" s="15">
         <v>22.54</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="22">
+      <c r="G13" s="33"/>
+      <c r="H13" s="27">
         <f>IF(E13&lt;F13,E13,F13)</f>
         <v>22.54</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="31" t="s">
+      <c r="I13" s="26"/>
+      <c r="J13" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="40"/>
+      <c r="L13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="32"/>
-      <c r="L13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>34</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="34">
+        <v>22.67</v>
+      </c>
+      <c r="F14" s="34">
+        <v>22.67</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="35">
+        <f>IF(F14&lt;E14,F14,E14)</f>
+        <v>22.67</v>
+      </c>
+      <c r="I14" s="45"/>
+      <c r="J14" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="46"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="34">
+        <v>17.53</v>
+      </c>
+      <c r="F15" s="34">
+        <v>53.39</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="35">
+        <f>IF(SUM(E15:E17)&lt;F15,SUM(E15:E17),F15)</f>
+        <v>53.39</v>
+      </c>
+      <c r="I15" s="45"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="34">
+        <v>19.72</v>
+      </c>
+      <c r="F16" s="36"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="34">
+        <v>16.14</v>
+      </c>
+      <c r="F17" s="36"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="22">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="17">
     <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D15:D17"/>
     <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F15:F17"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="H8:H10"/>
     <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H15:H17"/>
     <mergeCell ref="I3:I13"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="J8:J10"/>
     <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J14:J17"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="K8:K10"/>
     <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K14:K17"/>
   </mergeCells>
   <conditionalFormatting sqref="H13">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:J3 A4:A13 B4 H4:H6">
+  <conditionalFormatting sqref="A3:J3 A4:A18 B4 H4:H6">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
@@ -1729,6 +1883,18 @@
     <hyperlink ref="D13" r:id="rId40" display="行程单"/>
     <hyperlink ref="E13" r:id="rId41" display="22.54"/>
     <hyperlink ref="F13" r:id="rId42" display="22.54"/>
+    <hyperlink ref="C14" r:id="rId43" display="海大-海师: 张嘉佳、成志远、傅琦玮"/>
+    <hyperlink ref="D14" r:id="rId44" display="行程单"/>
+    <hyperlink ref="E14" r:id="rId45" display="22.67"/>
+    <hyperlink ref="F14" r:id="rId46" display="22.67"/>
+    <hyperlink ref="C15" r:id="rId47" display="海师-海大: 张嘉佳、成志远、傅琦玮"/>
+    <hyperlink ref="C16" r:id="rId48" display="海师-海大: 张嘉佳、成志远、傅琦玮"/>
+    <hyperlink ref="C17" r:id="rId49" display="海师-海大: 张嘉佳、成志远、傅琦玮"/>
+    <hyperlink ref="D15:D17" r:id="rId50" display="行程单"/>
+    <hyperlink ref="E15" r:id="rId51" display="17.53"/>
+    <hyperlink ref="E16" r:id="rId52" display="19.72"/>
+    <hyperlink ref="E17" r:id="rId53" display="16.14"/>
+    <hyperlink ref="F15:F17" r:id="rId54" display="53.39"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/expense/分区赛/汇总表.xlsx
+++ b/expense/分区赛/汇总表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
   <si>
     <t>编号</t>
   </si>
@@ -131,17 +131,42 @@
   </si>
   <si>
     <t>海师-海大: 张嘉佳、成志远、傅琦玮</t>
+  </si>
+  <si>
+    <t>海师-海大(1632): 韩一铭、胡荣、池盛昌</t>
+  </si>
+  <si>
+    <t>韩一铭</t>
+  </si>
+  <si>
+    <t>海师-海大(0641): 韩一铭、胡荣、池盛昌</t>
+  </si>
+  <si>
+    <t>海大-海师(0109): 韩一铭、胡荣、池盛昌</t>
+  </si>
+  <si>
+    <t>海师-海大(1419): 韩一铭、胡荣、池盛昌</t>
+  </si>
+  <si>
+    <t>海师-海大(1957): 韩一铭、胡荣、池盛昌</t>
+  </si>
+  <si>
+    <t>海大-海师(1627): 韩一铭、胡荣、池盛昌</t>
+  </si>
+  <si>
+    <t>海大-海师(2102): 韩一铭、胡荣、池盛昌</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -195,6 +220,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -203,23 +281,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,83 +313,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,6 +327,27 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -351,175 +376,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,7 +614,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,46 +623,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,6 +654,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -682,153 +683,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -887,6 +912,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -896,12 +924,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -917,31 +939,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -950,28 +975,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1308,12 +1333,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14:J17"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1354,7 +1379,7 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="37" t="s">
@@ -1374,7 +1399,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="24"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="38"/>
     </row>
     <row r="3" spans="1:11">
@@ -1391,25 +1416,25 @@
       <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="24">
         <v>21.9</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="24">
         <v>21.9</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27">
+      <c r="G3" s="25"/>
+      <c r="H3" s="26">
         <f>IF(E3&lt;F3,E3,F3)</f>
         <v>21.9</v>
       </c>
-      <c r="I3" s="26">
-        <f>SUM(H3:H13)</f>
-        <v>225.15</v>
-      </c>
-      <c r="J3" s="39" t="s">
+      <c r="I3" s="39">
+        <f>SUM(H3:H24)</f>
+        <v>441.39</v>
+      </c>
+      <c r="J3" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="40"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="7">
@@ -1425,22 +1450,22 @@
       <c r="D4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="24">
         <v>21.4</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="24">
         <v>21.4</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="27">
+      <c r="G4" s="25"/>
+      <c r="H4" s="26">
         <f>IF(E4&lt;F4,E4,F4)</f>
         <v>21.4</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="39" t="s">
+      <c r="I4" s="39"/>
+      <c r="J4" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="40"/>
+      <c r="K4" s="41"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="7">
@@ -1456,22 +1481,22 @@
       <c r="D5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="24">
         <v>17.23</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="24">
         <v>17.23</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27">
+      <c r="G5" s="25"/>
+      <c r="H5" s="26">
         <f>IF(E5&lt;F5,E5,F5)</f>
         <v>17.23</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="39" t="s">
+      <c r="I5" s="39"/>
+      <c r="J5" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="40"/>
+      <c r="K5" s="41"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="7">
@@ -1487,22 +1512,22 @@
       <c r="D6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="24">
         <v>19.23</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="24">
         <v>19.23</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="28">
+      <c r="G6" s="25"/>
+      <c r="H6" s="26">
         <f>IF(SUM(E6:E7)&lt;SUM(F6:F7),SUM(E6:E7),SUM(F6:F7))</f>
         <v>41.51</v>
       </c>
-      <c r="I6" s="26"/>
+      <c r="I6" s="39"/>
       <c r="J6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="41"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="7">
@@ -1524,11 +1549,11 @@
       <c r="F7" s="15">
         <v>22.28</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="39"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="42"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="7">
@@ -1547,19 +1572,19 @@
       <c r="E8" s="15">
         <v>24.55</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="15">
         <v>62.96</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="27">
+      <c r="G8" s="28"/>
+      <c r="H8" s="26">
         <f>IF(SUM(E8:E10)&lt;F8,SUM(E8:E10),F8)</f>
         <v>62.96</v>
       </c>
-      <c r="I8" s="26"/>
+      <c r="I8" s="39"/>
       <c r="J8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="41"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="7">
@@ -1576,12 +1601,12 @@
       <c r="E9" s="15">
         <v>18.78</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="26"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="39"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="43"/>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="7">
@@ -1598,12 +1623,12 @@
       <c r="E10" s="15">
         <v>19.63</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="26"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="39"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="42"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="7">
@@ -1622,19 +1647,19 @@
       <c r="E11" s="15">
         <v>16.78</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="17">
         <v>16.78</v>
       </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="27">
+      <c r="G11" s="28"/>
+      <c r="H11" s="26">
         <f>IF(SUM(E11:E12)&lt;SUM(F11:F12),SUM(E11:E12),SUM(F11:F12))</f>
         <v>37.61</v>
       </c>
-      <c r="I11" s="26"/>
+      <c r="I11" s="39"/>
       <c r="J11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="44" t="s">
+      <c r="K11" s="42" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1655,14 +1680,14 @@
       <c r="E12" s="15">
         <v>20.83</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="17">
         <v>20.83</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="26"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="39"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="44"/>
+      <c r="K12" s="42"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="7">
@@ -1684,16 +1709,16 @@
       <c r="F13" s="15">
         <v>22.54</v>
       </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="27">
+      <c r="G13" s="29"/>
+      <c r="H13" s="26">
         <f>IF(E13&lt;F13,E13,F13)</f>
         <v>22.54</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="39" t="s">
+      <c r="I13" s="39"/>
+      <c r="J13" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="40"/>
+      <c r="K13" s="41"/>
       <c r="L13" s="2" t="s">
         <v>33</v>
       </c>
@@ -1703,137 +1728,322 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="15">
         <v>22.67</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="15">
         <v>22.67</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="35">
-        <f>IF(F14&lt;E14,F14,E14)</f>
-        <v>22.67</v>
-      </c>
-      <c r="I14" s="45"/>
-      <c r="J14" s="46" t="s">
+      <c r="G14" s="28"/>
+      <c r="H14" s="30">
+        <f>IF(SUM(E14:E17)&lt;SUM(F14:F15),SUM(E14:E17),SUM(F14:F15))</f>
+        <v>76.06</v>
+      </c>
+      <c r="I14" s="39"/>
+      <c r="J14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="46"/>
+      <c r="K14" s="13"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="15">
         <v>17.53</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="15">
         <v>53.39</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="35">
-        <f>IF(SUM(E15:E17)&lt;F15,SUM(E15:E17),F15)</f>
-        <v>53.39</v>
-      </c>
-      <c r="I15" s="45"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="34">
+      <c r="D16" s="12"/>
+      <c r="E16" s="15">
         <v>19.72</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="34">
+      <c r="D17" s="12"/>
+      <c r="E17" s="15">
         <v>16.14</v>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="22">
+      <c r="F17" s="15"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
+      <c r="B18" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="33">
+        <v>19.36</v>
+      </c>
+      <c r="F18" s="33">
+        <v>61.23</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="30">
+        <f>IF(SUM(E18:E24)&lt;SUM(F18:F24),SUM(E18:E24),SUM(F18:F24))</f>
+        <v>140.18</v>
+      </c>
+      <c r="I18" s="39"/>
+      <c r="J18" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="44"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="18">
+        <f t="shared" ref="A19:A24" si="1">ROW()-2</f>
+        <v>17</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="35">
+        <v>21.22</v>
+      </c>
+      <c r="F19" s="35"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="45"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="18">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="35">
+        <v>20.65</v>
+      </c>
+      <c r="F20" s="35"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="45"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="18">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="36">
+        <v>20.2</v>
+      </c>
+      <c r="F21" s="36">
+        <v>20.2</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="45"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="18">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="33">
+        <v>20.19</v>
+      </c>
+      <c r="F22" s="33">
+        <v>20.19</v>
+      </c>
+      <c r="G22" s="34"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="45"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="18">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="35">
+        <v>20.14</v>
+      </c>
+      <c r="F23" s="33">
+        <v>20.14</v>
+      </c>
+      <c r="G23" s="34"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="45"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="18">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="33">
+        <v>18.42</v>
+      </c>
+      <c r="F24" s="33">
+        <v>18.42</v>
+      </c>
+      <c r="G24" s="34"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="46"/>
+    </row>
+    <row r="25" spans="5:7">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="5:7">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="22">
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D18:D20"/>
     <mergeCell ref="F8:F10"/>
     <mergeCell ref="F15:F17"/>
+    <mergeCell ref="F18:F20"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="H8:H10"/>
     <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I3:I13"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="H18:H24"/>
+    <mergeCell ref="I3:I24"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="J8:J10"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="J14:J17"/>
+    <mergeCell ref="J18:J24"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="K8:K10"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="K14:K17"/>
+    <mergeCell ref="K18:K24"/>
   </mergeCells>
   <conditionalFormatting sqref="H13">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:J3 A4:A18 B4 H4:H6">
+  <conditionalFormatting sqref="A3:J3 A4:A24 B4 H4:H6">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
@@ -1895,6 +2105,30 @@
     <hyperlink ref="E16" r:id="rId52" display="19.72"/>
     <hyperlink ref="E17" r:id="rId53" display="16.14"/>
     <hyperlink ref="F15:F17" r:id="rId54" display="53.39"/>
+    <hyperlink ref="E18" r:id="rId55" display="19.36"/>
+    <hyperlink ref="D18" r:id="rId56" display="行程单"/>
+    <hyperlink ref="E19" r:id="rId57" display="21.22"/>
+    <hyperlink ref="E20" r:id="rId58" display="20.65"/>
+    <hyperlink ref="F18:F20" r:id="rId59" display="61.23"/>
+    <hyperlink ref="D21" r:id="rId60" display="行程单"/>
+    <hyperlink ref="E21" r:id="rId61" display="20.2"/>
+    <hyperlink ref="F21" r:id="rId62" display="20.2"/>
+    <hyperlink ref="D22" r:id="rId63" display="行程单"/>
+    <hyperlink ref="E22" r:id="rId64" display="20.19"/>
+    <hyperlink ref="F22" r:id="rId65" display="20.19"/>
+    <hyperlink ref="D23" r:id="rId66" display="行程单"/>
+    <hyperlink ref="E23" r:id="rId67" display="20.14"/>
+    <hyperlink ref="F23" r:id="rId68" display="20.14"/>
+    <hyperlink ref="D24" r:id="rId69" display="行程单"/>
+    <hyperlink ref="E24" r:id="rId70" display="18.42"/>
+    <hyperlink ref="F24" r:id="rId71" display="18.42"/>
+    <hyperlink ref="C18" r:id="rId72" display="海师-海大(1632): 韩一铭、胡荣、池盛昌"/>
+    <hyperlink ref="C19" r:id="rId73" display="海师-海大(0641): 韩一铭、胡荣、池盛昌"/>
+    <hyperlink ref="C20" r:id="rId74" display="海大-海师(0109): 韩一铭、胡荣、池盛昌"/>
+    <hyperlink ref="C21" r:id="rId75" display="海师-海大(1419): 韩一铭、胡荣、池盛昌"/>
+    <hyperlink ref="C22" r:id="rId76" display="海师-海大(1957): 韩一铭、胡荣、池盛昌"/>
+    <hyperlink ref="C23" r:id="rId77" display="海大-海师(1627): 韩一铭、胡荣、池盛昌"/>
+    <hyperlink ref="C24" r:id="rId78" display="海大-海师(2102): 韩一铭、胡荣、池盛昌"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/expense/分区赛/汇总表.xlsx
+++ b/expense/分区赛/汇总表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="46">
   <si>
     <t>编号</t>
   </si>
@@ -64,6 +64,9 @@
     <t>张祖铭</t>
   </si>
   <si>
+    <t>收款人已确认</t>
+  </si>
+  <si>
     <t>海师-海大:曾帅博+邓磊镗+王雨蒙</t>
   </si>
   <si>
@@ -106,9 +109,6 @@
     <t>张艺鹏</t>
   </si>
   <si>
-    <t>收款人已确认</t>
-  </si>
-  <si>
     <t>海大-海师:张艺鹏</t>
   </si>
   <si>
@@ -136,7 +136,7 @@
     <t>海师-海大(1632): 韩一铭、胡荣、池盛昌</t>
   </si>
   <si>
-    <t>韩一铭</t>
+    <t>胡荣</t>
   </si>
   <si>
     <t>海师-海大(0641): 韩一铭、胡荣、池盛昌</t>
@@ -981,7 +981,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -990,13 +990,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1338,7 +1338,7 @@
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1434,7 +1434,9 @@
       <c r="J3" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="41"/>
+      <c r="K3" s="41" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="7">
@@ -1445,7 +1447,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>13</v>
@@ -1463,9 +1465,11 @@
       </c>
       <c r="I4" s="39"/>
       <c r="J4" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="41"/>
+        <v>17</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="7">
@@ -1476,7 +1480,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>13</v>
@@ -1494,9 +1498,11 @@
       </c>
       <c r="I5" s="39"/>
       <c r="J5" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="41"/>
+        <v>19</v>
+      </c>
+      <c r="K5" s="41" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="7">
@@ -1507,7 +1513,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>13</v>
@@ -1525,9 +1531,11 @@
       </c>
       <c r="I6" s="39"/>
       <c r="J6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="13"/>
+        <v>21</v>
+      </c>
+      <c r="K6" s="42" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="7">
@@ -1538,7 +1546,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>13</v>
@@ -1553,7 +1561,7 @@
       <c r="H7" s="26"/>
       <c r="I7" s="39"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="13"/>
+      <c r="K7" s="42"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="7">
@@ -1564,7 +1572,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>13</v>
@@ -1582,9 +1590,11 @@
       </c>
       <c r="I8" s="39"/>
       <c r="J8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="13"/>
+        <v>24</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="7">
@@ -1592,10 +1602,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15">
@@ -1606,7 +1616,7 @@
       <c r="H9" s="26"/>
       <c r="I9" s="39"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="13"/>
+      <c r="K9" s="42"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="7">
@@ -1614,10 +1624,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="15">
@@ -1628,7 +1638,7 @@
       <c r="H10" s="26"/>
       <c r="I10" s="39"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="13"/>
+      <c r="K10" s="42"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="7">
@@ -1639,7 +1649,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -1657,10 +1667,10 @@
       </c>
       <c r="I11" s="39"/>
       <c r="J11" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K11" s="42" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1718,7 +1728,9 @@
       <c r="J13" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="41"/>
+      <c r="K13" s="41" t="s">
+        <v>15</v>
+      </c>
       <c r="L13" s="2" t="s">
         <v>33</v>
       </c>
@@ -1729,7 +1741,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>34</v>
@@ -1808,7 +1820,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>37</v>
@@ -1853,7 +1865,9 @@
       <c r="J18" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="44"/>
+      <c r="K18" s="44" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="18">
@@ -1883,7 +1897,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>41</v>
@@ -1905,7 +1919,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>42</v>
@@ -1957,7 +1971,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>44</v>

--- a/expense/分区赛/汇总表.xlsx
+++ b/expense/分区赛/汇总表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
   <si>
     <t>编号</t>
   </si>
@@ -162,11 +162,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -214,6 +214,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -222,6 +229,105 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,20 +341,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -256,98 +348,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -376,175 +376,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,8 +613,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,7 +638,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,17 +684,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,123 +707,99 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -808,56 +808,56 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -915,15 +915,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -957,16 +948,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -975,9 +957,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -985,9 +964,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1338,7 +1314,7 @@
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14:K17"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1379,10 +1355,10 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="31" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -1399,8 +1375,8 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="38"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="7">
@@ -1416,25 +1392,25 @@
       <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="21">
         <v>21.9</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="21">
         <v>21.9</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26">
+      <c r="G3" s="22"/>
+      <c r="H3" s="23">
         <f>IF(E3&lt;F3,E3,F3)</f>
         <v>21.9</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I3" s="22">
         <f>SUM(H3:H24)</f>
         <v>441.39</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="34" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1452,22 +1428,22 @@
       <c r="D4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="21">
         <v>21.4</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="21">
         <v>21.4</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26">
+      <c r="G4" s="22"/>
+      <c r="H4" s="23">
         <f>IF(E4&lt;F4,E4,F4)</f>
         <v>21.4</v>
       </c>
-      <c r="I4" s="39"/>
-      <c r="J4" s="40" t="s">
+      <c r="I4" s="22"/>
+      <c r="J4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="41" t="s">
+      <c r="K4" s="34" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1485,22 +1461,22 @@
       <c r="D5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="21">
         <v>17.23</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="21">
         <v>17.23</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26">
+      <c r="G5" s="22"/>
+      <c r="H5" s="23">
         <f>IF(E5&lt;F5,E5,F5)</f>
         <v>17.23</v>
       </c>
-      <c r="I5" s="39"/>
-      <c r="J5" s="40" t="s">
+      <c r="I5" s="22"/>
+      <c r="J5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="41" t="s">
+      <c r="K5" s="34" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1518,22 +1494,22 @@
       <c r="D6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="21">
         <v>19.23</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="21">
         <v>19.23</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="26">
+      <c r="G6" s="22"/>
+      <c r="H6" s="23">
         <f>IF(SUM(E6:E7)&lt;SUM(F6:F7),SUM(E6:E7),SUM(F6:F7))</f>
         <v>41.51</v>
       </c>
-      <c r="I6" s="39"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="K6" s="35" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1557,11 +1533,11 @@
       <c r="F7" s="15">
         <v>22.28</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="39"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="22"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="42"/>
+      <c r="K7" s="35"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="7">
@@ -1583,16 +1559,16 @@
       <c r="F8" s="15">
         <v>62.96</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="26">
+      <c r="G8" s="25"/>
+      <c r="H8" s="23">
         <f>IF(SUM(E8:E10)&lt;F8,SUM(E8:E10),F8)</f>
         <v>62.96</v>
       </c>
-      <c r="I8" s="39"/>
+      <c r="I8" s="22"/>
       <c r="J8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="42" t="s">
+      <c r="K8" s="35" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1612,11 +1588,11 @@
         <v>18.78</v>
       </c>
       <c r="F9" s="15"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="39"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="22"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="42"/>
+      <c r="K9" s="35"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="7">
@@ -1634,11 +1610,11 @@
         <v>19.63</v>
       </c>
       <c r="F10" s="15"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="39"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="22"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="42"/>
+      <c r="K10" s="35"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="7">
@@ -1660,16 +1636,16 @@
       <c r="F11" s="17">
         <v>16.78</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="26">
+      <c r="G11" s="25"/>
+      <c r="H11" s="23">
         <f>IF(SUM(E11:E12)&lt;SUM(F11:F12),SUM(E11:E12),SUM(F11:F12))</f>
         <v>37.61</v>
       </c>
-      <c r="I11" s="39"/>
+      <c r="I11" s="22"/>
       <c r="J11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="42" t="s">
+      <c r="K11" s="35" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1693,11 +1669,11 @@
       <c r="F12" s="17">
         <v>20.83</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="39"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="22"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="42"/>
+      <c r="K12" s="35"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="7">
@@ -1719,16 +1695,16 @@
       <c r="F13" s="15">
         <v>22.54</v>
       </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="26">
+      <c r="G13" s="26"/>
+      <c r="H13" s="23">
         <f>IF(E13&lt;F13,E13,F13)</f>
         <v>22.54</v>
       </c>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40" t="s">
+      <c r="I13" s="22"/>
+      <c r="J13" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="41" t="s">
+      <c r="K13" s="34" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="2" t="s">
@@ -1755,16 +1731,18 @@
       <c r="F14" s="15">
         <v>22.67</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="30">
+      <c r="G14" s="25"/>
+      <c r="H14" s="27">
         <f>IF(SUM(E14:E17)&lt;SUM(F14:F15),SUM(E14:E17),SUM(F14:F15))</f>
         <v>76.06</v>
       </c>
-      <c r="I14" s="39"/>
+      <c r="I14" s="22"/>
       <c r="J14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="13"/>
+      <c r="K14" s="35" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="7">
@@ -1786,11 +1764,11 @@
       <c r="F15" s="15">
         <v>53.39</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="39"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="22"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
+      <c r="K15" s="35"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="7">
@@ -1808,11 +1786,11 @@
         <v>19.72</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="39"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="22"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
+      <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="7">
@@ -1830,42 +1808,42 @@
         <v>16.14</v>
       </c>
       <c r="F17" s="15"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="39"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="22"/>
       <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
+      <c r="K17" s="35"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="15">
         <v>19.36</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="15">
         <v>61.23</v>
       </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="30">
+      <c r="G18" s="25"/>
+      <c r="H18" s="27">
         <f>IF(SUM(E18:E24)&lt;SUM(F18:F24),SUM(E18:E24),SUM(F18:F24))</f>
         <v>140.18</v>
       </c>
-      <c r="I18" s="39"/>
-      <c r="J18" s="43" t="s">
+      <c r="I18" s="22"/>
+      <c r="J18" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="44" t="s">
+      <c r="K18" s="36" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1874,148 +1852,148 @@
         <f t="shared" ref="A19:A24" si="1">ROW()-2</f>
         <v>17</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="35">
+      <c r="D19" s="12"/>
+      <c r="E19" s="15">
         <v>21.22</v>
       </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="45"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="37"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="18">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="35">
+      <c r="D20" s="12"/>
+      <c r="E20" s="15">
         <v>20.65</v>
       </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="45"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="37"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="18">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="30">
         <v>20.2</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="30">
         <v>20.2</v>
       </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="45"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="37"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="18">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="15">
         <v>20.19</v>
       </c>
-      <c r="F22" s="33">
+      <c r="F22" s="15">
         <v>20.19</v>
       </c>
-      <c r="G22" s="34"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="45"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="37"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="18">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="15">
         <v>20.14</v>
       </c>
-      <c r="F23" s="33">
+      <c r="F23" s="15">
         <v>20.14</v>
       </c>
-      <c r="G23" s="34"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="45"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="37"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="18">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="15">
         <v>18.42</v>
       </c>
-      <c r="F24" s="33">
+      <c r="F24" s="15">
         <v>18.42</v>
       </c>
-      <c r="G24" s="34"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="46"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="38"/>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" s="4"/>

--- a/expense/分区赛/汇总表.xlsx
+++ b/expense/分区赛/汇总表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
   <si>
     <t>编号</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>姜一</t>
+  </si>
+  <si>
+    <t>郝旭光代领</t>
   </si>
   <si>
     <t>海大-海师:姜一、盛璐豪、吴子龙</t>
@@ -162,11 +165,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -214,12 +217,111 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -228,21 +330,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,52 +344,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -309,45 +351,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -376,175 +379,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,11 +613,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,32 +652,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,16 +696,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -712,152 +715,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -942,13 +945,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -964,6 +976,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1314,7 +1329,7 @@
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1330,7 +1345,8 @@
     <col min="9" max="9" width="7.375" style="4" customWidth="1"/>
     <col min="10" max="10" width="7" style="2" customWidth="1"/>
     <col min="11" max="11" width="12.4166666666667" style="2" customWidth="1"/>
-    <col min="12" max="24" width="9" style="2"/>
+    <col min="12" max="12" width="11.5" style="2" customWidth="1"/>
+    <col min="13" max="24" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1358,7 +1374,7 @@
       <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="34" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -1376,7 +1392,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="20"/>
-      <c r="I2" s="32"/>
+      <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="7">
@@ -1407,10 +1423,10 @@
         <f>SUM(H3:H24)</f>
         <v>441.39</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="37" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1440,10 +1456,10 @@
         <v>21.4</v>
       </c>
       <c r="I4" s="22"/>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="37" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1473,14 +1489,14 @@
         <v>17.23</v>
       </c>
       <c r="I5" s="22"/>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="37" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1509,11 +1525,14 @@
       <c r="J6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="38" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1522,7 +1541,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>13</v>
@@ -1537,7 +1556,8 @@
       <c r="H7" s="23"/>
       <c r="I7" s="22"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="35"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="7">
@@ -1548,7 +1568,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>13</v>
@@ -1566,9 +1586,9 @@
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="38" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1578,10 +1598,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15">
@@ -1592,7 +1612,7 @@
       <c r="H9" s="23"/>
       <c r="I9" s="22"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="35"/>
+      <c r="K9" s="38"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="7">
@@ -1600,10 +1620,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="15">
@@ -1614,7 +1634,7 @@
       <c r="H10" s="23"/>
       <c r="I10" s="22"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="35"/>
+      <c r="K10" s="38"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="7">
@@ -1625,7 +1645,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>13</v>
@@ -1643,9 +1663,9 @@
       </c>
       <c r="I11" s="22"/>
       <c r="J11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="38" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1658,7 +1678,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>13</v>
@@ -1673,7 +1693,7 @@
       <c r="H12" s="23"/>
       <c r="I12" s="22"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="35"/>
+      <c r="K12" s="38"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="7">
@@ -1684,7 +1704,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>13</v>
@@ -1693,7 +1713,7 @@
         <v>22.54</v>
       </c>
       <c r="F13" s="15">
-        <v>22.54</v>
+        <v>65.91</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="23">
@@ -1701,14 +1721,14 @@
         <v>22.54</v>
       </c>
       <c r="I13" s="22"/>
-      <c r="J13" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="34" t="s">
+      <c r="J13" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="37" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1717,10 +1737,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>13</v>
@@ -1738,9 +1758,9 @@
       </c>
       <c r="I14" s="22"/>
       <c r="J14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="38" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1750,10 +1770,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>13</v>
@@ -1762,13 +1782,13 @@
         <v>17.53</v>
       </c>
       <c r="F15" s="15">
-        <v>53.39</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="28"/>
+        <v>96.87</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
       <c r="I15" s="22"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="35"/>
+      <c r="K15" s="38"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="7">
@@ -1779,18 +1799,18 @@
         <v>11</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="15">
         <v>19.72</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="28"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="29"/>
       <c r="I16" s="22"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="35"/>
+      <c r="K16" s="38"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="7">
@@ -1798,21 +1818,21 @@
         <v>15</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="15">
         <v>16.14</v>
       </c>
       <c r="F17" s="15"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="29"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
       <c r="I17" s="22"/>
       <c r="J17" s="13"/>
-      <c r="K17" s="35"/>
+      <c r="K17" s="38"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="18">
@@ -1820,10 +1840,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>13</v>
@@ -1841,9 +1861,9 @@
       </c>
       <c r="I18" s="22"/>
       <c r="J18" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="40" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1856,7 +1876,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="15">
@@ -1864,10 +1884,10 @@
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="28"/>
+      <c r="H19" s="29"/>
       <c r="I19" s="22"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="37"/>
+      <c r="K19" s="41"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="18">
@@ -1875,10 +1895,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="15">
@@ -1886,10 +1906,10 @@
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="28"/>
+      <c r="H20" s="29"/>
       <c r="I20" s="22"/>
       <c r="J20" s="13"/>
-      <c r="K20" s="37"/>
+      <c r="K20" s="41"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="18">
@@ -1897,25 +1917,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="33">
         <v>20.2</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="33">
         <v>20.2</v>
       </c>
       <c r="G21" s="25"/>
-      <c r="H21" s="28"/>
+      <c r="H21" s="29"/>
       <c r="I21" s="22"/>
       <c r="J21" s="13"/>
-      <c r="K21" s="37"/>
+      <c r="K21" s="41"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="18">
@@ -1926,7 +1946,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>13</v>
@@ -1938,10 +1958,10 @@
         <v>20.19</v>
       </c>
       <c r="G22" s="25"/>
-      <c r="H22" s="28"/>
+      <c r="H22" s="29"/>
       <c r="I22" s="22"/>
       <c r="J22" s="13"/>
-      <c r="K22" s="37"/>
+      <c r="K22" s="41"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="18">
@@ -1949,10 +1969,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>13</v>
@@ -1964,10 +1984,10 @@
         <v>20.14</v>
       </c>
       <c r="G23" s="25"/>
-      <c r="H23" s="28"/>
+      <c r="H23" s="29"/>
       <c r="I23" s="22"/>
       <c r="J23" s="13"/>
-      <c r="K23" s="37"/>
+      <c r="K23" s="41"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="18">
@@ -1975,10 +1995,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>13</v>
@@ -1990,10 +2010,10 @@
         <v>18.42</v>
       </c>
       <c r="G24" s="25"/>
-      <c r="H24" s="29"/>
+      <c r="H24" s="32"/>
       <c r="I24" s="22"/>
       <c r="J24" s="13"/>
-      <c r="K24" s="38"/>
+      <c r="K24" s="42"/>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" s="4"/>
@@ -2006,13 +2026,14 @@
       <c r="G26" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="F8:F10"/>
     <mergeCell ref="F15:F17"/>
     <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G15:G17"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="H8:H10"/>
     <mergeCell ref="H11:H12"/>
@@ -2029,6 +2050,7 @@
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="K14:K17"/>
     <mergeCell ref="K18:K24"/>
+    <mergeCell ref="L6:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H13">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -2084,7 +2106,7 @@
     <hyperlink ref="C13" r:id="rId39" display="海大-海师：成志远、张嘉佳、傅琦玮"/>
     <hyperlink ref="D13" r:id="rId40" display="行程单"/>
     <hyperlink ref="E13" r:id="rId41" display="22.54"/>
-    <hyperlink ref="F13" r:id="rId42" display="22.54"/>
+    <hyperlink ref="F13" r:id="rId42" display="65.91"/>
     <hyperlink ref="C14" r:id="rId43" display="海大-海师: 张嘉佳、成志远、傅琦玮"/>
     <hyperlink ref="D14" r:id="rId44" display="行程单"/>
     <hyperlink ref="E14" r:id="rId45" display="22.67"/>
@@ -2096,7 +2118,7 @@
     <hyperlink ref="E15" r:id="rId51" display="17.53"/>
     <hyperlink ref="E16" r:id="rId52" display="19.72"/>
     <hyperlink ref="E17" r:id="rId53" display="16.14"/>
-    <hyperlink ref="F15:F17" r:id="rId54" display="53.39"/>
+    <hyperlink ref="F15:F17" r:id="rId54" display="96.87"/>
     <hyperlink ref="E18" r:id="rId55" display="19.36"/>
     <hyperlink ref="D18" r:id="rId56" display="行程单"/>
     <hyperlink ref="E19" r:id="rId57" display="21.22"/>

--- a/expense/分区赛/汇总表.xlsx
+++ b/expense/分区赛/汇总表.xlsx
@@ -165,11 +165,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -217,7 +217,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,25 +275,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,6 +308,28 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -284,38 +337,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,29 +351,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -379,175 +379,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,6 +613,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -647,6 +656,30 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -669,15 +702,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -686,181 +710,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -976,9 +976,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1329,7 +1326,7 @@
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3:G24"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1528,7 +1525,7 @@
       <c r="K6" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="39" t="s">
+      <c r="L6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1557,7 +1554,7 @@
       <c r="I7" s="22"/>
       <c r="J7" s="8"/>
       <c r="K7" s="38"/>
-      <c r="L7" s="39"/>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="7">
@@ -1863,7 +1860,7 @@
       <c r="J18" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="K18" s="40" t="s">
+      <c r="K18" s="39" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1887,7 +1884,7 @@
       <c r="H19" s="29"/>
       <c r="I19" s="22"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="41"/>
+      <c r="K19" s="40"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="18">
@@ -1909,7 +1906,7 @@
       <c r="H20" s="29"/>
       <c r="I20" s="22"/>
       <c r="J20" s="13"/>
-      <c r="K20" s="41"/>
+      <c r="K20" s="40"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="18">
@@ -1935,7 +1932,7 @@
       <c r="H21" s="29"/>
       <c r="I21" s="22"/>
       <c r="J21" s="13"/>
-      <c r="K21" s="41"/>
+      <c r="K21" s="40"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="18">
@@ -1961,7 +1958,7 @@
       <c r="H22" s="29"/>
       <c r="I22" s="22"/>
       <c r="J22" s="13"/>
-      <c r="K22" s="41"/>
+      <c r="K22" s="40"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="18">
@@ -1987,7 +1984,7 @@
       <c r="H23" s="29"/>
       <c r="I23" s="22"/>
       <c r="J23" s="13"/>
-      <c r="K23" s="41"/>
+      <c r="K23" s="40"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="18">
@@ -2013,7 +2010,7 @@
       <c r="H24" s="32"/>
       <c r="I24" s="22"/>
       <c r="J24" s="13"/>
-      <c r="K24" s="42"/>
+      <c r="K24" s="41"/>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" s="4"/>
@@ -2081,68 +2078,68 @@
     <hyperlink ref="F6" r:id="rId16" display="19.23"/>
     <hyperlink ref="D7" r:id="rId17" display="行程单"/>
     <hyperlink ref="E7" r:id="rId18" display="22.28"/>
-    <hyperlink ref="F7" r:id="rId16" display="22.28"/>
-    <hyperlink ref="C7" r:id="rId19" display="海大-海师:姜一、盛璐豪、吴子龙"/>
-    <hyperlink ref="D8" r:id="rId20" display="行程单"/>
-    <hyperlink ref="E8" r:id="rId21" display="24.55"/>
-    <hyperlink ref="E9" r:id="rId22" display="18.78"/>
-    <hyperlink ref="E10" r:id="rId23" display="19.63"/>
-    <hyperlink ref="E11" r:id="rId24" display="16.78"/>
-    <hyperlink ref="D9" r:id="rId20"/>
-    <hyperlink ref="D10" r:id="rId25"/>
-    <hyperlink ref="D8:D9" r:id="rId26" display="行程单"/>
-    <hyperlink ref="D8:D10" r:id="rId27" display="行程单"/>
-    <hyperlink ref="C8" r:id="rId28" display="海大-海师:魏郡辰、严超，曾帅博"/>
-    <hyperlink ref="C9" r:id="rId29" display="海大-海师:魏郡辰、严超"/>
-    <hyperlink ref="C10" r:id="rId30" display="海师-海大:魏郡辰、严超、老师"/>
-    <hyperlink ref="F8:F11" r:id="rId31" display="62.96"/>
-    <hyperlink ref="D11" r:id="rId32" display="行程单"/>
-    <hyperlink ref="F11" r:id="rId33" display="16.78"/>
-    <hyperlink ref="D12" r:id="rId34" display="行程单"/>
-    <hyperlink ref="E12" r:id="rId35" display="20.83"/>
-    <hyperlink ref="F12" r:id="rId36" display="20.83"/>
-    <hyperlink ref="C12" r:id="rId37" display="海大-海师:张艺鹏"/>
-    <hyperlink ref="C11" r:id="rId38" display="海师-海大:张艺鹏、严超、颜丽娜、魏郡辰"/>
-    <hyperlink ref="C13" r:id="rId39" display="海大-海师：成志远、张嘉佳、傅琦玮"/>
-    <hyperlink ref="D13" r:id="rId40" display="行程单"/>
-    <hyperlink ref="E13" r:id="rId41" display="22.54"/>
-    <hyperlink ref="F13" r:id="rId42" display="65.91"/>
-    <hyperlink ref="C14" r:id="rId43" display="海大-海师: 张嘉佳、成志远、傅琦玮"/>
-    <hyperlink ref="D14" r:id="rId44" display="行程单"/>
-    <hyperlink ref="E14" r:id="rId45" display="22.67"/>
-    <hyperlink ref="F14" r:id="rId46" display="22.67"/>
-    <hyperlink ref="C15" r:id="rId47" display="海师-海大: 张嘉佳、成志远、傅琦玮"/>
-    <hyperlink ref="C16" r:id="rId48" display="海师-海大: 张嘉佳、成志远、傅琦玮"/>
-    <hyperlink ref="C17" r:id="rId49" display="海师-海大: 张嘉佳、成志远、傅琦玮"/>
-    <hyperlink ref="D15:D17" r:id="rId50" display="行程单"/>
-    <hyperlink ref="E15" r:id="rId51" display="17.53"/>
-    <hyperlink ref="E16" r:id="rId52" display="19.72"/>
-    <hyperlink ref="E17" r:id="rId53" display="16.14"/>
-    <hyperlink ref="F15:F17" r:id="rId54" display="96.87"/>
-    <hyperlink ref="E18" r:id="rId55" display="19.36"/>
-    <hyperlink ref="D18" r:id="rId56" display="行程单"/>
-    <hyperlink ref="E19" r:id="rId57" display="21.22"/>
-    <hyperlink ref="E20" r:id="rId58" display="20.65"/>
-    <hyperlink ref="F18:F20" r:id="rId59" display="61.23"/>
-    <hyperlink ref="D21" r:id="rId60" display="行程单"/>
-    <hyperlink ref="E21" r:id="rId61" display="20.2"/>
-    <hyperlink ref="F21" r:id="rId62" display="20.2"/>
-    <hyperlink ref="D22" r:id="rId63" display="行程单"/>
-    <hyperlink ref="E22" r:id="rId64" display="20.19"/>
-    <hyperlink ref="F22" r:id="rId65" display="20.19"/>
-    <hyperlink ref="D23" r:id="rId66" display="行程单"/>
-    <hyperlink ref="E23" r:id="rId67" display="20.14"/>
-    <hyperlink ref="F23" r:id="rId68" display="20.14"/>
-    <hyperlink ref="D24" r:id="rId69" display="行程单"/>
-    <hyperlink ref="E24" r:id="rId70" display="18.42"/>
-    <hyperlink ref="F24" r:id="rId71" display="18.42"/>
-    <hyperlink ref="C18" r:id="rId72" display="海师-海大(1632): 韩一铭、胡荣、池盛昌"/>
-    <hyperlink ref="C19" r:id="rId73" display="海师-海大(0641): 韩一铭、胡荣、池盛昌"/>
-    <hyperlink ref="C20" r:id="rId74" display="海大-海师(0109): 韩一铭、胡荣、池盛昌"/>
-    <hyperlink ref="C21" r:id="rId75" display="海师-海大(1419): 韩一铭、胡荣、池盛昌"/>
-    <hyperlink ref="C22" r:id="rId76" display="海师-海大(1957): 韩一铭、胡荣、池盛昌"/>
-    <hyperlink ref="C23" r:id="rId77" display="海大-海师(1627): 韩一铭、胡荣、池盛昌"/>
-    <hyperlink ref="C24" r:id="rId78" display="海大-海师(2102): 韩一铭、胡荣、池盛昌"/>
+    <hyperlink ref="F7" r:id="rId19" display="22.28"/>
+    <hyperlink ref="C7" r:id="rId20" display="海大-海师:姜一、盛璐豪、吴子龙"/>
+    <hyperlink ref="D8" r:id="rId21" display="行程单"/>
+    <hyperlink ref="E8" r:id="rId22" display="24.55"/>
+    <hyperlink ref="E9" r:id="rId23" display="18.78"/>
+    <hyperlink ref="E10" r:id="rId24" display="19.63"/>
+    <hyperlink ref="E11" r:id="rId25" display="16.78"/>
+    <hyperlink ref="D9" r:id="rId21"/>
+    <hyperlink ref="D10" r:id="rId26"/>
+    <hyperlink ref="D8:D9" r:id="rId27" display="行程单"/>
+    <hyperlink ref="D8:D10" r:id="rId28" display="行程单"/>
+    <hyperlink ref="C8" r:id="rId29" display="海大-海师:魏郡辰、严超，曾帅博"/>
+    <hyperlink ref="C9" r:id="rId30" display="海大-海师:魏郡辰、严超"/>
+    <hyperlink ref="C10" r:id="rId31" display="海师-海大:魏郡辰、严超、老师"/>
+    <hyperlink ref="F8:F11" r:id="rId32" display="62.96"/>
+    <hyperlink ref="D11" r:id="rId33" display="行程单"/>
+    <hyperlink ref="F11" r:id="rId34" display="16.78"/>
+    <hyperlink ref="D12" r:id="rId35" display="行程单"/>
+    <hyperlink ref="E12" r:id="rId36" display="20.83"/>
+    <hyperlink ref="F12" r:id="rId37" display="20.83"/>
+    <hyperlink ref="C12" r:id="rId38" display="海大-海师:张艺鹏"/>
+    <hyperlink ref="C11" r:id="rId39" display="海师-海大:张艺鹏、严超、颜丽娜、魏郡辰"/>
+    <hyperlink ref="C13" r:id="rId40" display="海大-海师：成志远、张嘉佳、傅琦玮"/>
+    <hyperlink ref="D13" r:id="rId41" display="行程单"/>
+    <hyperlink ref="E13" r:id="rId42" display="22.54"/>
+    <hyperlink ref="F13" r:id="rId43" display="65.91"/>
+    <hyperlink ref="C14" r:id="rId44" display="海大-海师: 张嘉佳、成志远、傅琦玮"/>
+    <hyperlink ref="D14" r:id="rId45" display="行程单"/>
+    <hyperlink ref="E14" r:id="rId46" display="22.67"/>
+    <hyperlink ref="F14" r:id="rId47" display="22.67"/>
+    <hyperlink ref="C15" r:id="rId48" display="海师-海大: 张嘉佳、成志远、傅琦玮"/>
+    <hyperlink ref="C16" r:id="rId49" display="海师-海大: 张嘉佳、成志远、傅琦玮"/>
+    <hyperlink ref="C17" r:id="rId50" display="海师-海大: 张嘉佳、成志远、傅琦玮"/>
+    <hyperlink ref="D15:D17" r:id="rId51" display="行程单"/>
+    <hyperlink ref="E15" r:id="rId52" display="17.53"/>
+    <hyperlink ref="E16" r:id="rId53" display="19.72"/>
+    <hyperlink ref="E17" r:id="rId54" display="16.14"/>
+    <hyperlink ref="F15:F17" r:id="rId55" display="96.87"/>
+    <hyperlink ref="E18" r:id="rId56" display="19.36"/>
+    <hyperlink ref="D18" r:id="rId57" display="行程单"/>
+    <hyperlink ref="E19" r:id="rId58" display="21.22"/>
+    <hyperlink ref="E20" r:id="rId59" display="20.65"/>
+    <hyperlink ref="F18:F20" r:id="rId60" display="61.23"/>
+    <hyperlink ref="D21" r:id="rId61" display="行程单"/>
+    <hyperlink ref="E21" r:id="rId62" display="20.2"/>
+    <hyperlink ref="F21" r:id="rId63" display="20.2"/>
+    <hyperlink ref="D22" r:id="rId64" display="行程单"/>
+    <hyperlink ref="E22" r:id="rId65" display="20.19"/>
+    <hyperlink ref="F22" r:id="rId66" display="20.19"/>
+    <hyperlink ref="D23" r:id="rId67" display="行程单"/>
+    <hyperlink ref="E23" r:id="rId68" display="20.14"/>
+    <hyperlink ref="F23" r:id="rId69" display="20.14"/>
+    <hyperlink ref="D24" r:id="rId70" display="行程单"/>
+    <hyperlink ref="E24" r:id="rId71" display="18.42"/>
+    <hyperlink ref="F24" r:id="rId72" display="18.42"/>
+    <hyperlink ref="C18" r:id="rId73" display="海师-海大(1632): 韩一铭、胡荣、池盛昌"/>
+    <hyperlink ref="C19" r:id="rId74" display="海师-海大(0641): 韩一铭、胡荣、池盛昌"/>
+    <hyperlink ref="C20" r:id="rId75" display="海大-海师(0109): 韩一铭、胡荣、池盛昌"/>
+    <hyperlink ref="C21" r:id="rId76" display="海师-海大(1419): 韩一铭、胡荣、池盛昌"/>
+    <hyperlink ref="C22" r:id="rId77" display="海师-海大(1957): 韩一铭、胡荣、池盛昌"/>
+    <hyperlink ref="C23" r:id="rId78" display="海大-海师(1627): 韩一铭、胡荣、池盛昌"/>
+    <hyperlink ref="C24" r:id="rId79" display="海大-海师(2102): 韩一铭、胡荣、池盛昌"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/expense/分区赛/汇总表.xlsx
+++ b/expense/分区赛/汇总表.xlsx
@@ -1326,7 +1326,7 @@
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/expense/分区赛/汇总表.xlsx
+++ b/expense/分区赛/汇总表.xlsx
@@ -860,7 +860,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -916,6 +916,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1326,7 +1329,7 @@
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1368,10 +1371,10 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="35" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -1388,8 +1391,8 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="35"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="7">
@@ -1405,25 +1408,25 @@
       <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="22">
         <v>21.9</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="22">
         <v>21.9</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23">
+      <c r="G3" s="23"/>
+      <c r="H3" s="24">
         <f>IF(E3&lt;F3,E3,F3)</f>
         <v>21.9</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="23">
         <f>SUM(H3:H24)</f>
         <v>441.39</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="38" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1441,22 +1444,22 @@
       <c r="D4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="22">
         <v>21.4</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="22">
         <v>21.4</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23">
+      <c r="G4" s="23"/>
+      <c r="H4" s="24">
         <f>IF(E4&lt;F4,E4,F4)</f>
         <v>21.4</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="36" t="s">
+      <c r="I4" s="23"/>
+      <c r="J4" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="38" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1474,22 +1477,22 @@
       <c r="D5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="22">
         <v>17.23</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="22">
         <v>17.23</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23">
+      <c r="G5" s="23"/>
+      <c r="H5" s="24">
         <f>IF(E5&lt;F5,E5,F5)</f>
         <v>17.23</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="36" t="s">
+      <c r="I5" s="23"/>
+      <c r="J5" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="38" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1507,22 +1510,22 @@
       <c r="D6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="22">
         <v>19.23</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="22">
         <v>19.23</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23">
+      <c r="G6" s="23"/>
+      <c r="H6" s="24">
         <f>IF(SUM(E6:E7)&lt;SUM(F6:F7),SUM(E6:E7),SUM(F6:F7))</f>
         <v>41.51</v>
       </c>
-      <c r="I6" s="22"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="K6" s="39" t="s">
         <v>15</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -1549,11 +1552,11 @@
       <c r="F7" s="15">
         <v>22.28</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="22"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="23"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="38"/>
+      <c r="K7" s="39"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:11">
@@ -1576,16 +1579,16 @@
       <c r="F8" s="15">
         <v>62.96</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="23">
+      <c r="G8" s="26"/>
+      <c r="H8" s="24">
         <f>IF(SUM(E8:E10)&lt;F8,SUM(E8:E10),F8)</f>
         <v>62.96</v>
       </c>
-      <c r="I8" s="22"/>
+      <c r="I8" s="23"/>
       <c r="J8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="38" t="s">
+      <c r="K8" s="39" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1605,11 +1608,11 @@
         <v>18.78</v>
       </c>
       <c r="F9" s="15"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="22"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="23"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="38"/>
+      <c r="K9" s="39"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="7">
@@ -1627,11 +1630,11 @@
         <v>19.63</v>
       </c>
       <c r="F10" s="15"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="22"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="23"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="38"/>
+      <c r="K10" s="39"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="7">
@@ -1653,16 +1656,16 @@
       <c r="F11" s="17">
         <v>16.78</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="23">
+      <c r="G11" s="26"/>
+      <c r="H11" s="24">
         <f>IF(SUM(E11:E12)&lt;SUM(F11:F12),SUM(E11:E12),SUM(F11:F12))</f>
         <v>37.61</v>
       </c>
-      <c r="I11" s="22"/>
+      <c r="I11" s="23"/>
       <c r="J11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="38" t="s">
+      <c r="K11" s="39" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1686,11 +1689,11 @@
       <c r="F12" s="17">
         <v>20.83</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="22"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="23"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="38"/>
+      <c r="K12" s="39"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="7">
@@ -1712,16 +1715,16 @@
       <c r="F13" s="15">
         <v>65.91</v>
       </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="23">
+      <c r="G13" s="27"/>
+      <c r="H13" s="24">
         <f>IF(E13&lt;F13,E13,F13)</f>
         <v>22.54</v>
       </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="36" t="s">
+      <c r="I13" s="23"/>
+      <c r="J13" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="37" t="s">
+      <c r="K13" s="38" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="2" t="s">
@@ -1748,16 +1751,16 @@
       <c r="F14" s="15">
         <v>22.67</v>
       </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="27">
+      <c r="G14" s="26"/>
+      <c r="H14" s="28">
         <f>IF(SUM(E14:E17)&lt;SUM(F14:F15),SUM(E14:E17),SUM(F14:F15))</f>
         <v>76.06</v>
       </c>
-      <c r="I14" s="22"/>
+      <c r="I14" s="23"/>
       <c r="J14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="38" t="s">
+      <c r="K14" s="39" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1781,11 +1784,11 @@
       <c r="F15" s="15">
         <v>96.87</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="22"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="23"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="38"/>
+      <c r="K15" s="39"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="7">
@@ -1803,11 +1806,11 @@
         <v>19.72</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="22"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="23"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="38"/>
+      <c r="K16" s="39"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="7">
@@ -1825,11 +1828,11 @@
         <v>16.14</v>
       </c>
       <c r="F17" s="15"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="22"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="13"/>
-      <c r="K17" s="38"/>
+      <c r="K17" s="39"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="18">
@@ -1851,16 +1854,16 @@
       <c r="F18" s="15">
         <v>61.23</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="27">
+      <c r="G18" s="26"/>
+      <c r="H18" s="28">
         <f>IF(SUM(E18:E24)&lt;SUM(F18:F24),SUM(E18:E24),SUM(F18:F24))</f>
         <v>140.18</v>
       </c>
-      <c r="I18" s="22"/>
+      <c r="I18" s="23"/>
       <c r="J18" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="K18" s="39" t="s">
+      <c r="K18" s="40" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1875,16 +1878,16 @@
       <c r="C19" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="12"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="15">
         <v>21.22</v>
       </c>
       <c r="F19" s="15"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="22"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="23"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="40"/>
+      <c r="K19" s="41"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="18">
@@ -1897,16 +1900,16 @@
       <c r="C20" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="12"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="15">
         <v>20.65</v>
       </c>
       <c r="F20" s="15"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="22"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="23"/>
       <c r="J20" s="13"/>
-      <c r="K20" s="40"/>
+      <c r="K20" s="41"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="18">
@@ -1922,17 +1925,17 @@
       <c r="D21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="34">
         <v>20.2</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="34">
         <v>20.2</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="22"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="23"/>
       <c r="J21" s="13"/>
-      <c r="K21" s="40"/>
+      <c r="K21" s="41"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="18">
@@ -1954,11 +1957,11 @@
       <c r="F22" s="15">
         <v>20.19</v>
       </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="22"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="23"/>
       <c r="J22" s="13"/>
-      <c r="K22" s="40"/>
+      <c r="K22" s="41"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="18">
@@ -1980,11 +1983,11 @@
       <c r="F23" s="15">
         <v>20.14</v>
       </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="22"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="23"/>
       <c r="J23" s="13"/>
-      <c r="K23" s="40"/>
+      <c r="K23" s="41"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="18">
@@ -2006,11 +2009,11 @@
       <c r="F24" s="15">
         <v>18.42</v>
       </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="22"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="23"/>
       <c r="J24" s="13"/>
-      <c r="K24" s="41"/>
+      <c r="K24" s="42"/>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" s="4"/>
@@ -2140,6 +2143,7 @@
     <hyperlink ref="C22" r:id="rId77" display="海师-海大(1957): 韩一铭、胡荣、池盛昌"/>
     <hyperlink ref="C23" r:id="rId78" display="海大-海师(1627): 韩一铭、胡荣、池盛昌"/>
     <hyperlink ref="C24" r:id="rId79" display="海大-海师(2102): 韩一铭、胡荣、池盛昌"/>
+    <hyperlink ref="D18:D20" r:id="rId80" display="行程单"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/expense/分区赛/汇总表.xlsx
+++ b/expense/分区赛/汇总表.xlsx
@@ -64,7 +64,7 @@
     <t>张祖铭</t>
   </si>
   <si>
-    <t>收款人已确认</t>
+    <t>收款人已确认收款</t>
   </si>
   <si>
     <t>海师-海大:曾帅博+邓磊镗+王雨蒙</t>
@@ -165,10 +165,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -217,12 +217,81 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -231,9 +300,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,78 +338,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,29 +351,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -379,13 +379,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,61 +523,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,91 +541,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,15 +613,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -661,6 +652,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -678,30 +684,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -710,157 +692,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -916,9 +916,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1329,7 +1326,7 @@
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18:F20"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1344,7 +1341,7 @@
     <col min="8" max="8" width="7.375" style="3" customWidth="1"/>
     <col min="9" max="9" width="7.375" style="4" customWidth="1"/>
     <col min="10" max="10" width="7" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.4166666666667" style="2" customWidth="1"/>
+    <col min="11" max="11" width="17.125" style="2" customWidth="1"/>
     <col min="12" max="12" width="11.5" style="2" customWidth="1"/>
     <col min="13" max="24" width="9" style="2"/>
   </cols>
@@ -1371,10 +1368,10 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="34" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -1391,8 +1388,8 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="36"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="7">
@@ -1408,25 +1405,25 @@
       <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="21">
         <v>21.9</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="21">
         <v>21.9</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24">
+      <c r="G3" s="22"/>
+      <c r="H3" s="23">
         <f>IF(E3&lt;F3,E3,F3)</f>
         <v>21.9</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="22">
         <f>SUM(H3:H24)</f>
         <v>441.39</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="37" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1444,22 +1441,22 @@
       <c r="D4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="21">
         <v>21.4</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="21">
         <v>21.4</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24">
+      <c r="G4" s="22"/>
+      <c r="H4" s="23">
         <f>IF(E4&lt;F4,E4,F4)</f>
         <v>21.4</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="37" t="s">
+      <c r="I4" s="22"/>
+      <c r="J4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="37" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1477,22 +1474,22 @@
       <c r="D5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="21">
         <v>17.23</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="21">
         <v>17.23</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24">
+      <c r="G5" s="22"/>
+      <c r="H5" s="23">
         <f>IF(E5&lt;F5,E5,F5)</f>
         <v>17.23</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="37" t="s">
+      <c r="I5" s="22"/>
+      <c r="J5" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="K5" s="37" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1510,22 +1507,22 @@
       <c r="D6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="21">
         <v>19.23</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="21">
         <v>19.23</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24">
+      <c r="G6" s="22"/>
+      <c r="H6" s="23">
         <f>IF(SUM(E6:E7)&lt;SUM(F6:F7),SUM(E6:E7),SUM(F6:F7))</f>
         <v>41.51</v>
       </c>
-      <c r="I6" s="23"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="K6" s="38" t="s">
         <v>15</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -1552,11 +1549,11 @@
       <c r="F7" s="15">
         <v>22.28</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="22"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="39"/>
+      <c r="K7" s="38"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:11">
@@ -1579,16 +1576,16 @@
       <c r="F8" s="15">
         <v>62.96</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="24">
+      <c r="G8" s="25"/>
+      <c r="H8" s="23">
         <f>IF(SUM(E8:E10)&lt;F8,SUM(E8:E10),F8)</f>
         <v>62.96</v>
       </c>
-      <c r="I8" s="23"/>
+      <c r="I8" s="22"/>
       <c r="J8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="39" t="s">
+      <c r="K8" s="38" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1608,11 +1605,11 @@
         <v>18.78</v>
       </c>
       <c r="F9" s="15"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="22"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="39"/>
+      <c r="K9" s="38"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="7">
@@ -1630,11 +1627,11 @@
         <v>19.63</v>
       </c>
       <c r="F10" s="15"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="22"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="39"/>
+      <c r="K10" s="38"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="7">
@@ -1656,16 +1653,16 @@
       <c r="F11" s="17">
         <v>16.78</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="24">
+      <c r="G11" s="25"/>
+      <c r="H11" s="23">
         <f>IF(SUM(E11:E12)&lt;SUM(F11:F12),SUM(E11:E12),SUM(F11:F12))</f>
         <v>37.61</v>
       </c>
-      <c r="I11" s="23"/>
+      <c r="I11" s="22"/>
       <c r="J11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="K11" s="38" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1689,11 +1686,11 @@
       <c r="F12" s="17">
         <v>20.83</v>
       </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="23"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="22"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="39"/>
+      <c r="K12" s="38"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="7">
@@ -1715,13 +1712,13 @@
       <c r="F13" s="15">
         <v>65.91</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="24">
+      <c r="G13" s="26"/>
+      <c r="H13" s="23">
         <f>IF(E13&lt;F13,E13,F13)</f>
         <v>22.54</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="37" t="s">
+      <c r="I13" s="22"/>
+      <c r="J13" s="36" t="s">
         <v>33</v>
       </c>
       <c r="K13" s="38" t="s">
@@ -1751,16 +1748,16 @@
       <c r="F14" s="15">
         <v>22.67</v>
       </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="28">
+      <c r="G14" s="25"/>
+      <c r="H14" s="27">
         <f>IF(SUM(E14:E17)&lt;SUM(F14:F15),SUM(E14:E17),SUM(F14:F15))</f>
         <v>76.06</v>
       </c>
-      <c r="I14" s="23"/>
+      <c r="I14" s="22"/>
       <c r="J14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="39" t="s">
+      <c r="K14" s="38" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1784,11 +1781,11 @@
       <c r="F15" s="15">
         <v>96.87</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="23"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="22"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="39"/>
+      <c r="K15" s="38"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="7">
@@ -1806,11 +1803,11 @@
         <v>19.72</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="23"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="22"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="39"/>
+      <c r="K16" s="38"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="7">
@@ -1828,11 +1825,11 @@
         <v>16.14</v>
       </c>
       <c r="F17" s="15"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="23"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="22"/>
       <c r="J17" s="13"/>
-      <c r="K17" s="39"/>
+      <c r="K17" s="38"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="18">
@@ -1854,16 +1851,16 @@
       <c r="F18" s="15">
         <v>61.23</v>
       </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="28">
+      <c r="G18" s="25"/>
+      <c r="H18" s="27">
         <f>IF(SUM(E18:E24)&lt;SUM(F18:F24),SUM(E18:E24),SUM(F18:F24))</f>
         <v>140.18</v>
       </c>
-      <c r="I18" s="23"/>
+      <c r="I18" s="22"/>
       <c r="J18" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="K18" s="40" t="s">
+      <c r="K18" s="39" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1878,16 +1875,16 @@
       <c r="C19" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="15">
         <v>21.22</v>
       </c>
       <c r="F19" s="15"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="23"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="22"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="41"/>
+      <c r="K19" s="40"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="18">
@@ -1900,16 +1897,16 @@
       <c r="C20" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="19"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="15">
         <v>20.65</v>
       </c>
       <c r="F20" s="15"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="23"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="22"/>
       <c r="J20" s="13"/>
-      <c r="K20" s="41"/>
+      <c r="K20" s="40"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="18">
@@ -1925,17 +1922,17 @@
       <c r="D21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="33">
         <v>20.2</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="33">
         <v>20.2</v>
       </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="23"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="22"/>
       <c r="J21" s="13"/>
-      <c r="K21" s="41"/>
+      <c r="K21" s="40"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="18">
@@ -1957,11 +1954,11 @@
       <c r="F22" s="15">
         <v>20.19</v>
       </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="23"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="22"/>
       <c r="J22" s="13"/>
-      <c r="K22" s="41"/>
+      <c r="K22" s="40"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="18">
@@ -1983,11 +1980,11 @@
       <c r="F23" s="15">
         <v>20.14</v>
       </c>
-      <c r="G23" s="26"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="23"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="22"/>
       <c r="J23" s="13"/>
-      <c r="K23" s="41"/>
+      <c r="K23" s="40"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="18">
@@ -2009,11 +2006,11 @@
       <c r="F24" s="15">
         <v>18.42</v>
       </c>
-      <c r="G24" s="26"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="23"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="22"/>
       <c r="J24" s="13"/>
-      <c r="K24" s="42"/>
+      <c r="K24" s="41"/>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" s="4"/>
